--- a/protected/modules/excel/templates/BrechasAmpliadoEDTemplate.xlsx
+++ b/protected/modules/excel/templates/BrechasAmpliadoEDTemplate.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teto\Dropbox\Proyecto SEC\temp\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
   </bookViews>
@@ -12,9 +17,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$L$9</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,16 +32,10 @@
     <t>Impreso:</t>
   </si>
   <si>
-    <t>Analisis de Brechas</t>
-  </si>
-  <si>
     <t>Fecha inicio</t>
   </si>
   <si>
     <t>Fecha Final</t>
-  </si>
-  <si>
-    <t>Cedula</t>
   </si>
   <si>
     <t>Puesto</t>
@@ -46,12 +45,6 @@
   </si>
   <si>
     <t>Evaluador</t>
-  </si>
-  <si>
-    <t>Fecha Evaluacion</t>
-  </si>
-  <si>
-    <t>Calificacion</t>
   </si>
   <si>
     <t>Proceso</t>
@@ -93,26 +86,38 @@
     <t>Fecha Registro Compromisos</t>
   </si>
   <si>
-    <t>Calificacion de Puntualizaciones</t>
-  </si>
-  <si>
     <t>Informe Ampliado de Evaluaciones de Desempeño</t>
   </si>
   <si>
     <t>Competencia</t>
   </si>
   <si>
-    <t>Calificacion de Competencia</t>
+    <t>Cédula</t>
+  </si>
+  <si>
+    <t>Análisis de Brechas</t>
+  </si>
+  <si>
+    <t>Fecha Evaluación</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>Calificación de Puntualizaciones</t>
+  </si>
+  <si>
+    <t>Calificación de Competencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,22 +535,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V1044"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="5" width="30.7109375" customWidth="1"/>
@@ -562,20 +567,20 @@
     <col min="17" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6">
         <f ca="1">NOW()</f>
-        <v>41916.269389120367</v>
+        <v>42021.933822569445</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:22" ht="21">
+    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -591,9 +596,9 @@
       <c r="M2" s="8"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -609,9 +614,9 @@
       <c r="M3" s="9"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="10">
         <v>41640</v>
@@ -626,9 +631,9 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="10">
         <v>41640</v>
@@ -645,7 +650,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -660,75 +665,75 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="38.25">
+    <row r="7" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="F7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="H7" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="S7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="T7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="U7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="V7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V7" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -752,7 +757,7 @@
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -776,7 +781,7 @@
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -800,7 +805,7 @@
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -824,7 +829,7 @@
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -848,7 +853,7 @@
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -872,7 +877,7 @@
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -896,7 +901,7 @@
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -920,7 +925,7 @@
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -944,7 +949,7 @@
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -968,7 +973,7 @@
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -992,7 +997,7 @@
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1016,7 +1021,7 @@
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1040,7 +1045,7 @@
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1064,7 +1069,7 @@
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1088,7 +1093,7 @@
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1112,7 +1117,7 @@
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1136,7 +1141,7 @@
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1160,7 +1165,7 @@
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1184,7 +1189,7 @@
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1208,7 +1213,7 @@
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1232,7 +1237,7 @@
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1256,7 +1261,7 @@
       <c r="U29" s="12"/>
       <c r="V29" s="12"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1280,7 +1285,7 @@
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1304,7 +1309,7 @@
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1328,7 +1333,7 @@
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1352,7 +1357,7 @@
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1376,7 +1381,7 @@
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1400,7 +1405,7 @@
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -1424,7 +1429,7 @@
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -1448,7 +1453,7 @@
       <c r="U37" s="12"/>
       <c r="V37" s="12"/>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1472,7 +1477,7 @@
       <c r="U38" s="12"/>
       <c r="V38" s="12"/>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1496,7 +1501,7 @@
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -1520,7 +1525,7 @@
       <c r="U40" s="12"/>
       <c r="V40" s="12"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -1544,7 +1549,7 @@
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -1568,7 +1573,7 @@
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -1592,7 +1597,7 @@
       <c r="U43" s="12"/>
       <c r="V43" s="12"/>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -1616,7 +1621,7 @@
       <c r="U44" s="12"/>
       <c r="V44" s="12"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -1640,7 +1645,7 @@
       <c r="U45" s="12"/>
       <c r="V45" s="12"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -1664,7 +1669,7 @@
       <c r="U46" s="12"/>
       <c r="V46" s="12"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -1688,7 +1693,7 @@
       <c r="U47" s="12"/>
       <c r="V47" s="12"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -1712,7 +1717,7 @@
       <c r="U48" s="12"/>
       <c r="V48" s="12"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -1736,7 +1741,7 @@
       <c r="U49" s="12"/>
       <c r="V49" s="12"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -1760,7 +1765,7 @@
       <c r="U50" s="12"/>
       <c r="V50" s="12"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -1784,7 +1789,7 @@
       <c r="U51" s="12"/>
       <c r="V51" s="12"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -1808,7 +1813,7 @@
       <c r="U52" s="12"/>
       <c r="V52" s="12"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -1832,7 +1837,7 @@
       <c r="U53" s="12"/>
       <c r="V53" s="12"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -1856,7 +1861,7 @@
       <c r="U54" s="12"/>
       <c r="V54" s="12"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -1880,7 +1885,7 @@
       <c r="U55" s="12"/>
       <c r="V55" s="12"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -1904,7 +1909,7 @@
       <c r="U56" s="12"/>
       <c r="V56" s="12"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -1928,7 +1933,7 @@
       <c r="U57" s="12"/>
       <c r="V57" s="12"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -1952,7 +1957,7 @@
       <c r="U58" s="12"/>
       <c r="V58" s="12"/>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -1976,7 +1981,7 @@
       <c r="U59" s="12"/>
       <c r="V59" s="12"/>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -2000,7 +2005,7 @@
       <c r="U60" s="12"/>
       <c r="V60" s="12"/>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -2024,7 +2029,7 @@
       <c r="U61" s="12"/>
       <c r="V61" s="12"/>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -2048,7 +2053,7 @@
       <c r="U62" s="12"/>
       <c r="V62" s="12"/>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -2072,7 +2077,7 @@
       <c r="U63" s="12"/>
       <c r="V63" s="12"/>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -2096,7 +2101,7 @@
       <c r="U64" s="12"/>
       <c r="V64" s="12"/>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -2120,7 +2125,7 @@
       <c r="U65" s="12"/>
       <c r="V65" s="12"/>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -2144,7 +2149,7 @@
       <c r="U66" s="12"/>
       <c r="V66" s="12"/>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -2168,7 +2173,7 @@
       <c r="U67" s="12"/>
       <c r="V67" s="12"/>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -2192,7 +2197,7 @@
       <c r="U68" s="12"/>
       <c r="V68" s="12"/>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -2216,7 +2221,7 @@
       <c r="U69" s="12"/>
       <c r="V69" s="12"/>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -2240,7 +2245,7 @@
       <c r="U70" s="12"/>
       <c r="V70" s="12"/>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -2264,7 +2269,7 @@
       <c r="U71" s="12"/>
       <c r="V71" s="12"/>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -2288,7 +2293,7 @@
       <c r="U72" s="12"/>
       <c r="V72" s="12"/>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -2312,7 +2317,7 @@
       <c r="U73" s="12"/>
       <c r="V73" s="12"/>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -2336,7 +2341,7 @@
       <c r="U74" s="12"/>
       <c r="V74" s="12"/>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -2360,7 +2365,7 @@
       <c r="U75" s="12"/>
       <c r="V75" s="12"/>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -2384,7 +2389,7 @@
       <c r="U76" s="12"/>
       <c r="V76" s="12"/>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -2408,7 +2413,7 @@
       <c r="U77" s="12"/>
       <c r="V77" s="12"/>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -2432,7 +2437,7 @@
       <c r="U78" s="12"/>
       <c r="V78" s="12"/>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -2456,7 +2461,7 @@
       <c r="U79" s="12"/>
       <c r="V79" s="12"/>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -2480,7 +2485,7 @@
       <c r="U80" s="12"/>
       <c r="V80" s="12"/>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -2504,7 +2509,7 @@
       <c r="U81" s="12"/>
       <c r="V81" s="12"/>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -2528,7 +2533,7 @@
       <c r="U82" s="12"/>
       <c r="V82" s="12"/>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -2552,7 +2557,7 @@
       <c r="U83" s="12"/>
       <c r="V83" s="12"/>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -2576,7 +2581,7 @@
       <c r="U84" s="12"/>
       <c r="V84" s="12"/>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -2600,7 +2605,7 @@
       <c r="U85" s="12"/>
       <c r="V85" s="12"/>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -2624,7 +2629,7 @@
       <c r="U86" s="12"/>
       <c r="V86" s="12"/>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -2648,7 +2653,7 @@
       <c r="U87" s="12"/>
       <c r="V87" s="12"/>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -2672,7 +2677,7 @@
       <c r="U88" s="12"/>
       <c r="V88" s="12"/>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -2696,7 +2701,7 @@
       <c r="U89" s="12"/>
       <c r="V89" s="12"/>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -2720,7 +2725,7 @@
       <c r="U90" s="12"/>
       <c r="V90" s="12"/>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -2744,7 +2749,7 @@
       <c r="U91" s="12"/>
       <c r="V91" s="12"/>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -2768,7 +2773,7 @@
       <c r="U92" s="12"/>
       <c r="V92" s="12"/>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -2792,7 +2797,7 @@
       <c r="U93" s="12"/>
       <c r="V93" s="12"/>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -2816,7 +2821,7 @@
       <c r="U94" s="12"/>
       <c r="V94" s="12"/>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -2840,7 +2845,7 @@
       <c r="U95" s="12"/>
       <c r="V95" s="12"/>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -2864,7 +2869,7 @@
       <c r="U96" s="12"/>
       <c r="V96" s="12"/>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -2888,7 +2893,7 @@
       <c r="U97" s="12"/>
       <c r="V97" s="12"/>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -2912,7 +2917,7 @@
       <c r="U98" s="12"/>
       <c r="V98" s="12"/>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -2936,7 +2941,7 @@
       <c r="U99" s="12"/>
       <c r="V99" s="12"/>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -2960,7 +2965,7 @@
       <c r="U100" s="12"/>
       <c r="V100" s="12"/>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -2984,7 +2989,7 @@
       <c r="U101" s="12"/>
       <c r="V101" s="12"/>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -3008,7 +3013,7 @@
       <c r="U102" s="12"/>
       <c r="V102" s="12"/>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -3032,7 +3037,7 @@
       <c r="U103" s="12"/>
       <c r="V103" s="12"/>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -3056,7 +3061,7 @@
       <c r="U104" s="12"/>
       <c r="V104" s="12"/>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -3080,7 +3085,7 @@
       <c r="U105" s="12"/>
       <c r="V105" s="12"/>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -3104,7 +3109,7 @@
       <c r="U106" s="12"/>
       <c r="V106" s="12"/>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -3128,7 +3133,7 @@
       <c r="U107" s="12"/>
       <c r="V107" s="12"/>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -3152,7 +3157,7 @@
       <c r="U108" s="12"/>
       <c r="V108" s="12"/>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -3176,7 +3181,7 @@
       <c r="U109" s="12"/>
       <c r="V109" s="12"/>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -3200,7 +3205,7 @@
       <c r="U110" s="12"/>
       <c r="V110" s="12"/>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -3224,7 +3229,7 @@
       <c r="U111" s="12"/>
       <c r="V111" s="12"/>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -3248,7 +3253,7 @@
       <c r="U112" s="12"/>
       <c r="V112" s="12"/>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -3272,7 +3277,7 @@
       <c r="U113" s="12"/>
       <c r="V113" s="12"/>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -3296,7 +3301,7 @@
       <c r="U114" s="12"/>
       <c r="V114" s="12"/>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -3320,7 +3325,7 @@
       <c r="U115" s="12"/>
       <c r="V115" s="12"/>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -3344,7 +3349,7 @@
       <c r="U116" s="12"/>
       <c r="V116" s="12"/>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -3368,7 +3373,7 @@
       <c r="U117" s="12"/>
       <c r="V117" s="12"/>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -3392,7 +3397,7 @@
       <c r="U118" s="12"/>
       <c r="V118" s="12"/>
     </row>
-    <row r="119" spans="1:22">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -3416,7 +3421,7 @@
       <c r="U119" s="12"/>
       <c r="V119" s="12"/>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -3440,7 +3445,7 @@
       <c r="U120" s="12"/>
       <c r="V120" s="12"/>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -3464,7 +3469,7 @@
       <c r="U121" s="12"/>
       <c r="V121" s="12"/>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -3488,7 +3493,7 @@
       <c r="U122" s="12"/>
       <c r="V122" s="12"/>
     </row>
-    <row r="123" spans="1:22">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -3512,7 +3517,7 @@
       <c r="U123" s="12"/>
       <c r="V123" s="12"/>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -3536,7 +3541,7 @@
       <c r="U124" s="12"/>
       <c r="V124" s="12"/>
     </row>
-    <row r="125" spans="1:22">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -3560,7 +3565,7 @@
       <c r="U125" s="12"/>
       <c r="V125" s="12"/>
     </row>
-    <row r="126" spans="1:22">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -3584,7 +3589,7 @@
       <c r="U126" s="12"/>
       <c r="V126" s="12"/>
     </row>
-    <row r="127" spans="1:22">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -3608,7 +3613,7 @@
       <c r="U127" s="12"/>
       <c r="V127" s="12"/>
     </row>
-    <row r="128" spans="1:22">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -3632,7 +3637,7 @@
       <c r="U128" s="12"/>
       <c r="V128" s="12"/>
     </row>
-    <row r="129" spans="1:22">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -3656,7 +3661,7 @@
       <c r="U129" s="12"/>
       <c r="V129" s="12"/>
     </row>
-    <row r="130" spans="1:22">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -3680,7 +3685,7 @@
       <c r="U130" s="12"/>
       <c r="V130" s="12"/>
     </row>
-    <row r="131" spans="1:22">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -3704,7 +3709,7 @@
       <c r="U131" s="12"/>
       <c r="V131" s="12"/>
     </row>
-    <row r="132" spans="1:22">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -3728,7 +3733,7 @@
       <c r="U132" s="12"/>
       <c r="V132" s="12"/>
     </row>
-    <row r="133" spans="1:22">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -3752,7 +3757,7 @@
       <c r="U133" s="12"/>
       <c r="V133" s="12"/>
     </row>
-    <row r="134" spans="1:22">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -3776,7 +3781,7 @@
       <c r="U134" s="12"/>
       <c r="V134" s="12"/>
     </row>
-    <row r="135" spans="1:22">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -3800,7 +3805,7 @@
       <c r="U135" s="12"/>
       <c r="V135" s="12"/>
     </row>
-    <row r="136" spans="1:22">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -3824,7 +3829,7 @@
       <c r="U136" s="12"/>
       <c r="V136" s="12"/>
     </row>
-    <row r="137" spans="1:22">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -3848,7 +3853,7 @@
       <c r="U137" s="12"/>
       <c r="V137" s="12"/>
     </row>
-    <row r="138" spans="1:22">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -3872,7 +3877,7 @@
       <c r="U138" s="12"/>
       <c r="V138" s="12"/>
     </row>
-    <row r="139" spans="1:22">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -3896,7 +3901,7 @@
       <c r="U139" s="12"/>
       <c r="V139" s="12"/>
     </row>
-    <row r="140" spans="1:22">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -3920,7 +3925,7 @@
       <c r="U140" s="12"/>
       <c r="V140" s="12"/>
     </row>
-    <row r="141" spans="1:22">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -3944,7 +3949,7 @@
       <c r="U141" s="12"/>
       <c r="V141" s="12"/>
     </row>
-    <row r="142" spans="1:22">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -3968,7 +3973,7 @@
       <c r="U142" s="12"/>
       <c r="V142" s="12"/>
     </row>
-    <row r="143" spans="1:22">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -3992,7 +3997,7 @@
       <c r="U143" s="12"/>
       <c r="V143" s="12"/>
     </row>
-    <row r="144" spans="1:22">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -4016,7 +4021,7 @@
       <c r="U144" s="12"/>
       <c r="V144" s="12"/>
     </row>
-    <row r="145" spans="1:22">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -4040,7 +4045,7 @@
       <c r="U145" s="12"/>
       <c r="V145" s="12"/>
     </row>
-    <row r="146" spans="1:22">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -4064,7 +4069,7 @@
       <c r="U146" s="12"/>
       <c r="V146" s="12"/>
     </row>
-    <row r="147" spans="1:22">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -4088,7 +4093,7 @@
       <c r="U147" s="12"/>
       <c r="V147" s="12"/>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -4112,7 +4117,7 @@
       <c r="U148" s="12"/>
       <c r="V148" s="12"/>
     </row>
-    <row r="149" spans="1:22">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -4136,7 +4141,7 @@
       <c r="U149" s="12"/>
       <c r="V149" s="12"/>
     </row>
-    <row r="150" spans="1:22">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -4160,7 +4165,7 @@
       <c r="U150" s="12"/>
       <c r="V150" s="12"/>
     </row>
-    <row r="151" spans="1:22">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -4184,7 +4189,7 @@
       <c r="U151" s="12"/>
       <c r="V151" s="12"/>
     </row>
-    <row r="152" spans="1:22">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -4208,7 +4213,7 @@
       <c r="U152" s="12"/>
       <c r="V152" s="12"/>
     </row>
-    <row r="153" spans="1:22">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -4232,7 +4237,7 @@
       <c r="U153" s="12"/>
       <c r="V153" s="12"/>
     </row>
-    <row r="154" spans="1:22">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -4256,7 +4261,7 @@
       <c r="U154" s="12"/>
       <c r="V154" s="12"/>
     </row>
-    <row r="155" spans="1:22">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -4280,7 +4285,7 @@
       <c r="U155" s="12"/>
       <c r="V155" s="12"/>
     </row>
-    <row r="156" spans="1:22">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -4304,7 +4309,7 @@
       <c r="U156" s="12"/>
       <c r="V156" s="12"/>
     </row>
-    <row r="157" spans="1:22">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -4328,7 +4333,7 @@
       <c r="U157" s="12"/>
       <c r="V157" s="12"/>
     </row>
-    <row r="158" spans="1:22">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158" s="12"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -4352,7 +4357,7 @@
       <c r="U158" s="12"/>
       <c r="V158" s="12"/>
     </row>
-    <row r="159" spans="1:22">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -4376,7 +4381,7 @@
       <c r="U159" s="12"/>
       <c r="V159" s="12"/>
     </row>
-    <row r="160" spans="1:22">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -4400,7 +4405,7 @@
       <c r="U160" s="12"/>
       <c r="V160" s="12"/>
     </row>
-    <row r="161" spans="1:22">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -4424,7 +4429,7 @@
       <c r="U161" s="12"/>
       <c r="V161" s="12"/>
     </row>
-    <row r="162" spans="1:22">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -4448,7 +4453,7 @@
       <c r="U162" s="12"/>
       <c r="V162" s="12"/>
     </row>
-    <row r="163" spans="1:22">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -4472,7 +4477,7 @@
       <c r="U163" s="12"/>
       <c r="V163" s="12"/>
     </row>
-    <row r="164" spans="1:22">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -4496,7 +4501,7 @@
       <c r="U164" s="12"/>
       <c r="V164" s="12"/>
     </row>
-    <row r="165" spans="1:22">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -4520,7 +4525,7 @@
       <c r="U165" s="12"/>
       <c r="V165" s="12"/>
     </row>
-    <row r="166" spans="1:22">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -4544,7 +4549,7 @@
       <c r="U166" s="12"/>
       <c r="V166" s="12"/>
     </row>
-    <row r="167" spans="1:22">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -4568,7 +4573,7 @@
       <c r="U167" s="12"/>
       <c r="V167" s="12"/>
     </row>
-    <row r="168" spans="1:22">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -4592,7 +4597,7 @@
       <c r="U168" s="12"/>
       <c r="V168" s="12"/>
     </row>
-    <row r="169" spans="1:22">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -4616,7 +4621,7 @@
       <c r="U169" s="12"/>
       <c r="V169" s="12"/>
     </row>
-    <row r="170" spans="1:22">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -4640,7 +4645,7 @@
       <c r="U170" s="12"/>
       <c r="V170" s="12"/>
     </row>
-    <row r="171" spans="1:22">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -4664,7 +4669,7 @@
       <c r="U171" s="12"/>
       <c r="V171" s="12"/>
     </row>
-    <row r="172" spans="1:22">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -4688,7 +4693,7 @@
       <c r="U172" s="12"/>
       <c r="V172" s="12"/>
     </row>
-    <row r="173" spans="1:22">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -4712,7 +4717,7 @@
       <c r="U173" s="12"/>
       <c r="V173" s="12"/>
     </row>
-    <row r="174" spans="1:22">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -4736,7 +4741,7 @@
       <c r="U174" s="12"/>
       <c r="V174" s="12"/>
     </row>
-    <row r="175" spans="1:22">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -4760,7 +4765,7 @@
       <c r="U175" s="12"/>
       <c r="V175" s="12"/>
     </row>
-    <row r="176" spans="1:22">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176" s="12"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -4784,7 +4789,7 @@
       <c r="U176" s="12"/>
       <c r="V176" s="12"/>
     </row>
-    <row r="177" spans="1:22">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -4808,7 +4813,7 @@
       <c r="U177" s="12"/>
       <c r="V177" s="12"/>
     </row>
-    <row r="178" spans="1:22">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178" s="12"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -4832,7 +4837,7 @@
       <c r="U178" s="12"/>
       <c r="V178" s="12"/>
     </row>
-    <row r="179" spans="1:22">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -4856,7 +4861,7 @@
       <c r="U179" s="12"/>
       <c r="V179" s="12"/>
     </row>
-    <row r="180" spans="1:22">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180" s="12"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -4880,7 +4885,7 @@
       <c r="U180" s="12"/>
       <c r="V180" s="12"/>
     </row>
-    <row r="181" spans="1:22">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -4904,7 +4909,7 @@
       <c r="U181" s="12"/>
       <c r="V181" s="12"/>
     </row>
-    <row r="182" spans="1:22">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -4928,7 +4933,7 @@
       <c r="U182" s="12"/>
       <c r="V182" s="12"/>
     </row>
-    <row r="183" spans="1:22">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183" s="12"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -4952,7 +4957,7 @@
       <c r="U183" s="12"/>
       <c r="V183" s="12"/>
     </row>
-    <row r="184" spans="1:22">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184" s="12"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -4976,7 +4981,7 @@
       <c r="U184" s="12"/>
       <c r="V184" s="12"/>
     </row>
-    <row r="185" spans="1:22">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -5000,7 +5005,7 @@
       <c r="U185" s="12"/>
       <c r="V185" s="12"/>
     </row>
-    <row r="186" spans="1:22">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186" s="12"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -5024,7 +5029,7 @@
       <c r="U186" s="12"/>
       <c r="V186" s="12"/>
     </row>
-    <row r="187" spans="1:22">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187" s="12"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -5048,7 +5053,7 @@
       <c r="U187" s="12"/>
       <c r="V187" s="12"/>
     </row>
-    <row r="188" spans="1:22">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -5072,7 +5077,7 @@
       <c r="U188" s="12"/>
       <c r="V188" s="12"/>
     </row>
-    <row r="189" spans="1:22">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A189" s="12"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -5096,7 +5101,7 @@
       <c r="U189" s="12"/>
       <c r="V189" s="12"/>
     </row>
-    <row r="190" spans="1:22">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -5120,7 +5125,7 @@
       <c r="U190" s="12"/>
       <c r="V190" s="12"/>
     </row>
-    <row r="191" spans="1:22">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191" s="12"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -5144,7 +5149,7 @@
       <c r="U191" s="12"/>
       <c r="V191" s="12"/>
     </row>
-    <row r="192" spans="1:22">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -5168,7 +5173,7 @@
       <c r="U192" s="12"/>
       <c r="V192" s="12"/>
     </row>
-    <row r="193" spans="1:22">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193" s="12"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -5192,7 +5197,7 @@
       <c r="U193" s="12"/>
       <c r="V193" s="12"/>
     </row>
-    <row r="194" spans="1:22">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -5216,7 +5221,7 @@
       <c r="U194" s="12"/>
       <c r="V194" s="12"/>
     </row>
-    <row r="195" spans="1:22">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -5240,7 +5245,7 @@
       <c r="U195" s="12"/>
       <c r="V195" s="12"/>
     </row>
-    <row r="196" spans="1:22">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -5264,7 +5269,7 @@
       <c r="U196" s="12"/>
       <c r="V196" s="12"/>
     </row>
-    <row r="197" spans="1:22">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -5288,7 +5293,7 @@
       <c r="U197" s="12"/>
       <c r="V197" s="12"/>
     </row>
-    <row r="198" spans="1:22">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -5312,7 +5317,7 @@
       <c r="U198" s="12"/>
       <c r="V198" s="12"/>
     </row>
-    <row r="199" spans="1:22">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -5336,7 +5341,7 @@
       <c r="U199" s="12"/>
       <c r="V199" s="12"/>
     </row>
-    <row r="200" spans="1:22">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -5360,7 +5365,7 @@
       <c r="U200" s="12"/>
       <c r="V200" s="12"/>
     </row>
-    <row r="201" spans="1:22">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201" s="12"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -5384,7 +5389,7 @@
       <c r="U201" s="12"/>
       <c r="V201" s="12"/>
     </row>
-    <row r="202" spans="1:22">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -5408,7 +5413,7 @@
       <c r="U202" s="12"/>
       <c r="V202" s="12"/>
     </row>
-    <row r="203" spans="1:22">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -5432,7 +5437,7 @@
       <c r="U203" s="12"/>
       <c r="V203" s="12"/>
     </row>
-    <row r="204" spans="1:22">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -5456,7 +5461,7 @@
       <c r="U204" s="12"/>
       <c r="V204" s="12"/>
     </row>
-    <row r="205" spans="1:22">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -5480,7 +5485,7 @@
       <c r="U205" s="12"/>
       <c r="V205" s="12"/>
     </row>
-    <row r="206" spans="1:22">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206" s="12"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -5504,7 +5509,7 @@
       <c r="U206" s="12"/>
       <c r="V206" s="12"/>
     </row>
-    <row r="207" spans="1:22">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -5528,7 +5533,7 @@
       <c r="U207" s="12"/>
       <c r="V207" s="12"/>
     </row>
-    <row r="208" spans="1:22">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208" s="12"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -5552,7 +5557,7 @@
       <c r="U208" s="12"/>
       <c r="V208" s="12"/>
     </row>
-    <row r="209" spans="1:22">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -5576,7 +5581,7 @@
       <c r="U209" s="12"/>
       <c r="V209" s="12"/>
     </row>
-    <row r="210" spans="1:22">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -5600,7 +5605,7 @@
       <c r="U210" s="12"/>
       <c r="V210" s="12"/>
     </row>
-    <row r="211" spans="1:22">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -5624,7 +5629,7 @@
       <c r="U211" s="12"/>
       <c r="V211" s="12"/>
     </row>
-    <row r="212" spans="1:22">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -5648,7 +5653,7 @@
       <c r="U212" s="12"/>
       <c r="V212" s="12"/>
     </row>
-    <row r="213" spans="1:22">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -5672,7 +5677,7 @@
       <c r="U213" s="12"/>
       <c r="V213" s="12"/>
     </row>
-    <row r="214" spans="1:22">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -5696,7 +5701,7 @@
       <c r="U214" s="12"/>
       <c r="V214" s="12"/>
     </row>
-    <row r="215" spans="1:22">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -5720,7 +5725,7 @@
       <c r="U215" s="12"/>
       <c r="V215" s="12"/>
     </row>
-    <row r="216" spans="1:22">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216" s="12"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -5744,7 +5749,7 @@
       <c r="U216" s="12"/>
       <c r="V216" s="12"/>
     </row>
-    <row r="217" spans="1:22">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -5768,7 +5773,7 @@
       <c r="U217" s="12"/>
       <c r="V217" s="12"/>
     </row>
-    <row r="218" spans="1:22">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -5792,7 +5797,7 @@
       <c r="U218" s="12"/>
       <c r="V218" s="12"/>
     </row>
-    <row r="219" spans="1:22">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -5816,7 +5821,7 @@
       <c r="U219" s="12"/>
       <c r="V219" s="12"/>
     </row>
-    <row r="220" spans="1:22">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
@@ -5840,7 +5845,7 @@
       <c r="U220" s="12"/>
       <c r="V220" s="12"/>
     </row>
-    <row r="221" spans="1:22">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221" s="12"/>
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
@@ -5864,7 +5869,7 @@
       <c r="U221" s="12"/>
       <c r="V221" s="12"/>
     </row>
-    <row r="222" spans="1:22">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
@@ -5888,7 +5893,7 @@
       <c r="U222" s="12"/>
       <c r="V222" s="12"/>
     </row>
-    <row r="223" spans="1:22">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
@@ -5912,7 +5917,7 @@
       <c r="U223" s="12"/>
       <c r="V223" s="12"/>
     </row>
-    <row r="224" spans="1:22">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
@@ -5936,7 +5941,7 @@
       <c r="U224" s="12"/>
       <c r="V224" s="12"/>
     </row>
-    <row r="225" spans="1:22">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A225" s="12"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -5960,7 +5965,7 @@
       <c r="U225" s="12"/>
       <c r="V225" s="12"/>
     </row>
-    <row r="226" spans="1:22">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -5984,7 +5989,7 @@
       <c r="U226" s="12"/>
       <c r="V226" s="12"/>
     </row>
-    <row r="227" spans="1:22">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A227" s="12"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -6008,7 +6013,7 @@
       <c r="U227" s="12"/>
       <c r="V227" s="12"/>
     </row>
-    <row r="228" spans="1:22">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A228" s="12"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -6032,7 +6037,7 @@
       <c r="U228" s="12"/>
       <c r="V228" s="12"/>
     </row>
-    <row r="229" spans="1:22">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -6056,7 +6061,7 @@
       <c r="U229" s="12"/>
       <c r="V229" s="12"/>
     </row>
-    <row r="230" spans="1:22">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A230" s="12"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -6080,7 +6085,7 @@
       <c r="U230" s="12"/>
       <c r="V230" s="12"/>
     </row>
-    <row r="231" spans="1:22">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A231" s="12"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -6104,7 +6109,7 @@
       <c r="U231" s="12"/>
       <c r="V231" s="12"/>
     </row>
-    <row r="232" spans="1:22">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A232" s="12"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
@@ -6128,7 +6133,7 @@
       <c r="U232" s="12"/>
       <c r="V232" s="12"/>
     </row>
-    <row r="233" spans="1:22">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A233" s="12"/>
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
@@ -6152,7 +6157,7 @@
       <c r="U233" s="12"/>
       <c r="V233" s="12"/>
     </row>
-    <row r="234" spans="1:22">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A234" s="12"/>
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
@@ -6176,7 +6181,7 @@
       <c r="U234" s="12"/>
       <c r="V234" s="12"/>
     </row>
-    <row r="235" spans="1:22">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
       <c r="B235" s="12"/>
       <c r="C235" s="12"/>
@@ -6200,7 +6205,7 @@
       <c r="U235" s="12"/>
       <c r="V235" s="12"/>
     </row>
-    <row r="236" spans="1:22">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A236" s="12"/>
       <c r="B236" s="12"/>
       <c r="C236" s="12"/>
@@ -6224,7 +6229,7 @@
       <c r="U236" s="12"/>
       <c r="V236" s="12"/>
     </row>
-    <row r="237" spans="1:22">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A237" s="12"/>
       <c r="B237" s="12"/>
       <c r="C237" s="12"/>
@@ -6248,7 +6253,7 @@
       <c r="U237" s="12"/>
       <c r="V237" s="12"/>
     </row>
-    <row r="238" spans="1:22">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A238" s="12"/>
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
@@ -6272,7 +6277,7 @@
       <c r="U238" s="12"/>
       <c r="V238" s="12"/>
     </row>
-    <row r="239" spans="1:22">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
@@ -6296,7 +6301,7 @@
       <c r="U239" s="12"/>
       <c r="V239" s="12"/>
     </row>
-    <row r="240" spans="1:22">
+    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A240" s="12"/>
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
@@ -6320,7 +6325,7 @@
       <c r="U240" s="12"/>
       <c r="V240" s="12"/>
     </row>
-    <row r="241" spans="1:22">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A241" s="12"/>
       <c r="B241" s="12"/>
       <c r="C241" s="12"/>
@@ -6344,7 +6349,7 @@
       <c r="U241" s="12"/>
       <c r="V241" s="12"/>
     </row>
-    <row r="242" spans="1:22">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
       <c r="B242" s="12"/>
       <c r="C242" s="12"/>
@@ -6368,7 +6373,7 @@
       <c r="U242" s="12"/>
       <c r="V242" s="12"/>
     </row>
-    <row r="243" spans="1:22">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243" s="12"/>
       <c r="B243" s="12"/>
       <c r="C243" s="12"/>
@@ -6392,7 +6397,7 @@
       <c r="U243" s="12"/>
       <c r="V243" s="12"/>
     </row>
-    <row r="244" spans="1:22">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
       <c r="B244" s="12"/>
       <c r="C244" s="12"/>
@@ -6416,7 +6421,7 @@
       <c r="U244" s="12"/>
       <c r="V244" s="12"/>
     </row>
-    <row r="245" spans="1:22">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
       <c r="B245" s="12"/>
       <c r="C245" s="12"/>
@@ -6440,7 +6445,7 @@
       <c r="U245" s="12"/>
       <c r="V245" s="12"/>
     </row>
-    <row r="246" spans="1:22">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246" s="12"/>
       <c r="B246" s="12"/>
       <c r="C246" s="12"/>
@@ -6464,7 +6469,7 @@
       <c r="U246" s="12"/>
       <c r="V246" s="12"/>
     </row>
-    <row r="247" spans="1:22">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
       <c r="B247" s="12"/>
       <c r="C247" s="12"/>
@@ -6488,7 +6493,7 @@
       <c r="U247" s="12"/>
       <c r="V247" s="12"/>
     </row>
-    <row r="248" spans="1:22">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
       <c r="B248" s="12"/>
       <c r="C248" s="12"/>
@@ -6512,7 +6517,7 @@
       <c r="U248" s="12"/>
       <c r="V248" s="12"/>
     </row>
-    <row r="249" spans="1:22">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249" s="12"/>
       <c r="B249" s="12"/>
       <c r="C249" s="12"/>
@@ -6536,7 +6541,7 @@
       <c r="U249" s="12"/>
       <c r="V249" s="12"/>
     </row>
-    <row r="250" spans="1:22">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
       <c r="B250" s="12"/>
       <c r="C250" s="12"/>
@@ -6560,7 +6565,7 @@
       <c r="U250" s="12"/>
       <c r="V250" s="12"/>
     </row>
-    <row r="251" spans="1:22">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
       <c r="B251" s="12"/>
       <c r="C251" s="12"/>
@@ -6584,7 +6589,7 @@
       <c r="U251" s="12"/>
       <c r="V251" s="12"/>
     </row>
-    <row r="252" spans="1:22">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
       <c r="B252" s="12"/>
       <c r="C252" s="12"/>
@@ -6608,7 +6613,7 @@
       <c r="U252" s="12"/>
       <c r="V252" s="12"/>
     </row>
-    <row r="253" spans="1:22">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
@@ -6632,7 +6637,7 @@
       <c r="U253" s="12"/>
       <c r="V253" s="12"/>
     </row>
-    <row r="254" spans="1:22">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
       <c r="B254" s="12"/>
       <c r="C254" s="12"/>
@@ -6656,7 +6661,7 @@
       <c r="U254" s="12"/>
       <c r="V254" s="12"/>
     </row>
-    <row r="255" spans="1:22">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -6680,7 +6685,7 @@
       <c r="U255" s="12"/>
       <c r="V255" s="12"/>
     </row>
-    <row r="256" spans="1:22">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
       <c r="B256" s="12"/>
       <c r="C256" s="12"/>
@@ -6704,7 +6709,7 @@
       <c r="U256" s="12"/>
       <c r="V256" s="12"/>
     </row>
-    <row r="257" spans="1:22">
+    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
       <c r="B257" s="12"/>
       <c r="C257" s="12"/>
@@ -6728,7 +6733,7 @@
       <c r="U257" s="12"/>
       <c r="V257" s="12"/>
     </row>
-    <row r="258" spans="1:22">
+    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
       <c r="B258" s="12"/>
       <c r="C258" s="12"/>
@@ -6752,7 +6757,7 @@
       <c r="U258" s="12"/>
       <c r="V258" s="12"/>
     </row>
-    <row r="259" spans="1:22">
+    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
       <c r="B259" s="12"/>
       <c r="C259" s="12"/>
@@ -6776,7 +6781,7 @@
       <c r="U259" s="12"/>
       <c r="V259" s="12"/>
     </row>
-    <row r="260" spans="1:22">
+    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A260" s="12"/>
       <c r="B260" s="12"/>
       <c r="C260" s="12"/>
@@ -6800,7 +6805,7 @@
       <c r="U260" s="12"/>
       <c r="V260" s="12"/>
     </row>
-    <row r="261" spans="1:22">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
       <c r="B261" s="12"/>
       <c r="C261" s="12"/>
@@ -6824,7 +6829,7 @@
       <c r="U261" s="12"/>
       <c r="V261" s="12"/>
     </row>
-    <row r="262" spans="1:22">
+    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
       <c r="B262" s="12"/>
       <c r="C262" s="12"/>
@@ -6848,7 +6853,7 @@
       <c r="U262" s="12"/>
       <c r="V262" s="12"/>
     </row>
-    <row r="263" spans="1:22">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
       <c r="B263" s="12"/>
       <c r="C263" s="12"/>
@@ -6872,7 +6877,7 @@
       <c r="U263" s="12"/>
       <c r="V263" s="12"/>
     </row>
-    <row r="264" spans="1:22">
+    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" s="12"/>
       <c r="B264" s="12"/>
       <c r="C264" s="12"/>
@@ -6896,7 +6901,7 @@
       <c r="U264" s="12"/>
       <c r="V264" s="12"/>
     </row>
-    <row r="265" spans="1:22">
+    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A265" s="12"/>
       <c r="B265" s="12"/>
       <c r="C265" s="12"/>
@@ -6920,7 +6925,7 @@
       <c r="U265" s="12"/>
       <c r="V265" s="12"/>
     </row>
-    <row r="266" spans="1:22">
+    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A266" s="12"/>
       <c r="B266" s="12"/>
       <c r="C266" s="12"/>
@@ -6944,7 +6949,7 @@
       <c r="U266" s="12"/>
       <c r="V266" s="12"/>
     </row>
-    <row r="267" spans="1:22">
+    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A267" s="12"/>
       <c r="B267" s="12"/>
       <c r="C267" s="12"/>
@@ -6968,7 +6973,7 @@
       <c r="U267" s="12"/>
       <c r="V267" s="12"/>
     </row>
-    <row r="268" spans="1:22">
+    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A268" s="12"/>
       <c r="B268" s="12"/>
       <c r="C268" s="12"/>
@@ -6992,7 +6997,7 @@
       <c r="U268" s="12"/>
       <c r="V268" s="12"/>
     </row>
-    <row r="269" spans="1:22">
+    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A269" s="12"/>
       <c r="B269" s="12"/>
       <c r="C269" s="12"/>
@@ -7016,7 +7021,7 @@
       <c r="U269" s="12"/>
       <c r="V269" s="12"/>
     </row>
-    <row r="270" spans="1:22">
+    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A270" s="12"/>
       <c r="B270" s="12"/>
       <c r="C270" s="12"/>
@@ -7040,7 +7045,7 @@
       <c r="U270" s="12"/>
       <c r="V270" s="12"/>
     </row>
-    <row r="271" spans="1:22">
+    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A271" s="12"/>
       <c r="B271" s="12"/>
       <c r="C271" s="12"/>
@@ -7064,7 +7069,7 @@
       <c r="U271" s="12"/>
       <c r="V271" s="12"/>
     </row>
-    <row r="272" spans="1:22">
+    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
       <c r="B272" s="12"/>
       <c r="C272" s="12"/>
@@ -7088,7 +7093,7 @@
       <c r="U272" s="12"/>
       <c r="V272" s="12"/>
     </row>
-    <row r="273" spans="1:22">
+    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A273" s="12"/>
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
@@ -7112,7 +7117,7 @@
       <c r="U273" s="12"/>
       <c r="V273" s="12"/>
     </row>
-    <row r="274" spans="1:22">
+    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
@@ -7136,7 +7141,7 @@
       <c r="U274" s="12"/>
       <c r="V274" s="12"/>
     </row>
-    <row r="275" spans="1:22">
+    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
       <c r="B275" s="12"/>
       <c r="C275" s="12"/>
@@ -7160,7 +7165,7 @@
       <c r="U275" s="12"/>
       <c r="V275" s="12"/>
     </row>
-    <row r="276" spans="1:22">
+    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A276" s="12"/>
       <c r="B276" s="12"/>
       <c r="C276" s="12"/>
@@ -7184,7 +7189,7 @@
       <c r="U276" s="12"/>
       <c r="V276" s="12"/>
     </row>
-    <row r="277" spans="1:22">
+    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A277" s="12"/>
       <c r="B277" s="12"/>
       <c r="C277" s="12"/>
@@ -7208,7 +7213,7 @@
       <c r="U277" s="12"/>
       <c r="V277" s="12"/>
     </row>
-    <row r="278" spans="1:22">
+    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -7232,7 +7237,7 @@
       <c r="U278" s="12"/>
       <c r="V278" s="12"/>
     </row>
-    <row r="279" spans="1:22">
+    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A279" s="12"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
@@ -7256,7 +7261,7 @@
       <c r="U279" s="12"/>
       <c r="V279" s="12"/>
     </row>
-    <row r="280" spans="1:22">
+    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A280" s="12"/>
       <c r="B280" s="12"/>
       <c r="C280" s="12"/>
@@ -7280,7 +7285,7 @@
       <c r="U280" s="12"/>
       <c r="V280" s="12"/>
     </row>
-    <row r="281" spans="1:22">
+    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A281" s="12"/>
       <c r="B281" s="12"/>
       <c r="C281" s="12"/>
@@ -7304,7 +7309,7 @@
       <c r="U281" s="12"/>
       <c r="V281" s="12"/>
     </row>
-    <row r="282" spans="1:22">
+    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A282" s="12"/>
       <c r="B282" s="12"/>
       <c r="C282" s="12"/>
@@ -7328,7 +7333,7 @@
       <c r="U282" s="12"/>
       <c r="V282" s="12"/>
     </row>
-    <row r="283" spans="1:22">
+    <row r="283" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
@@ -7352,7 +7357,7 @@
       <c r="U283" s="12"/>
       <c r="V283" s="12"/>
     </row>
-    <row r="284" spans="1:22">
+    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A284" s="12"/>
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
@@ -7376,7 +7381,7 @@
       <c r="U284" s="12"/>
       <c r="V284" s="12"/>
     </row>
-    <row r="285" spans="1:22">
+    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A285" s="12"/>
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
@@ -7400,7 +7405,7 @@
       <c r="U285" s="12"/>
       <c r="V285" s="12"/>
     </row>
-    <row r="286" spans="1:22">
+    <row r="286" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A286" s="12"/>
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
@@ -7424,7 +7429,7 @@
       <c r="U286" s="12"/>
       <c r="V286" s="12"/>
     </row>
-    <row r="287" spans="1:22">
+    <row r="287" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A287" s="12"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
@@ -7448,7 +7453,7 @@
       <c r="U287" s="12"/>
       <c r="V287" s="12"/>
     </row>
-    <row r="288" spans="1:22">
+    <row r="288" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A288" s="12"/>
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
@@ -7472,7 +7477,7 @@
       <c r="U288" s="12"/>
       <c r="V288" s="12"/>
     </row>
-    <row r="289" spans="1:22">
+    <row r="289" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A289" s="12"/>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
@@ -7496,7 +7501,7 @@
       <c r="U289" s="12"/>
       <c r="V289" s="12"/>
     </row>
-    <row r="290" spans="1:22">
+    <row r="290" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A290" s="12"/>
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
@@ -7520,7 +7525,7 @@
       <c r="U290" s="12"/>
       <c r="V290" s="12"/>
     </row>
-    <row r="291" spans="1:22">
+    <row r="291" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A291" s="12"/>
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
@@ -7544,7 +7549,7 @@
       <c r="U291" s="12"/>
       <c r="V291" s="12"/>
     </row>
-    <row r="292" spans="1:22">
+    <row r="292" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A292" s="12"/>
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
@@ -7568,7 +7573,7 @@
       <c r="U292" s="12"/>
       <c r="V292" s="12"/>
     </row>
-    <row r="293" spans="1:22">
+    <row r="293" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A293" s="12"/>
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
@@ -7592,7 +7597,7 @@
       <c r="U293" s="12"/>
       <c r="V293" s="12"/>
     </row>
-    <row r="294" spans="1:22">
+    <row r="294" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A294" s="12"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
@@ -7616,7 +7621,7 @@
       <c r="U294" s="12"/>
       <c r="V294" s="12"/>
     </row>
-    <row r="295" spans="1:22">
+    <row r="295" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A295" s="12"/>
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
@@ -7640,7 +7645,7 @@
       <c r="U295" s="12"/>
       <c r="V295" s="12"/>
     </row>
-    <row r="296" spans="1:22">
+    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A296" s="12"/>
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
@@ -7664,7 +7669,7 @@
       <c r="U296" s="12"/>
       <c r="V296" s="12"/>
     </row>
-    <row r="297" spans="1:22">
+    <row r="297" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A297" s="12"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
@@ -7688,7 +7693,7 @@
       <c r="U297" s="12"/>
       <c r="V297" s="12"/>
     </row>
-    <row r="298" spans="1:22">
+    <row r="298" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A298" s="12"/>
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
@@ -7712,7 +7717,7 @@
       <c r="U298" s="12"/>
       <c r="V298" s="12"/>
     </row>
-    <row r="299" spans="1:22">
+    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A299" s="12"/>
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
@@ -7736,7 +7741,7 @@
       <c r="U299" s="12"/>
       <c r="V299" s="12"/>
     </row>
-    <row r="300" spans="1:22">
+    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A300" s="12"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
@@ -7760,7 +7765,7 @@
       <c r="U300" s="12"/>
       <c r="V300" s="12"/>
     </row>
-    <row r="301" spans="1:22">
+    <row r="301" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A301" s="12"/>
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
@@ -7784,7 +7789,7 @@
       <c r="U301" s="12"/>
       <c r="V301" s="12"/>
     </row>
-    <row r="302" spans="1:22">
+    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A302" s="12"/>
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
@@ -7808,7 +7813,7 @@
       <c r="U302" s="12"/>
       <c r="V302" s="12"/>
     </row>
-    <row r="303" spans="1:22">
+    <row r="303" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A303" s="12"/>
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
@@ -7832,7 +7837,7 @@
       <c r="U303" s="12"/>
       <c r="V303" s="12"/>
     </row>
-    <row r="304" spans="1:22">
+    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A304" s="12"/>
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
@@ -7856,7 +7861,7 @@
       <c r="U304" s="12"/>
       <c r="V304" s="12"/>
     </row>
-    <row r="305" spans="1:22">
+    <row r="305" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A305" s="12"/>
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
@@ -7880,7 +7885,7 @@
       <c r="U305" s="12"/>
       <c r="V305" s="12"/>
     </row>
-    <row r="306" spans="1:22">
+    <row r="306" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A306" s="12"/>
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
@@ -7904,7 +7909,7 @@
       <c r="U306" s="12"/>
       <c r="V306" s="12"/>
     </row>
-    <row r="307" spans="1:22">
+    <row r="307" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A307" s="12"/>
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
@@ -7928,7 +7933,7 @@
       <c r="U307" s="12"/>
       <c r="V307" s="12"/>
     </row>
-    <row r="308" spans="1:22">
+    <row r="308" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A308" s="12"/>
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
@@ -7952,7 +7957,7 @@
       <c r="U308" s="12"/>
       <c r="V308" s="12"/>
     </row>
-    <row r="309" spans="1:22">
+    <row r="309" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A309" s="12"/>
       <c r="B309" s="12"/>
       <c r="C309" s="12"/>
@@ -7976,7 +7981,7 @@
       <c r="U309" s="12"/>
       <c r="V309" s="12"/>
     </row>
-    <row r="310" spans="1:22">
+    <row r="310" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A310" s="12"/>
       <c r="B310" s="12"/>
       <c r="C310" s="12"/>
@@ -8000,7 +8005,7 @@
       <c r="U310" s="12"/>
       <c r="V310" s="12"/>
     </row>
-    <row r="311" spans="1:22">
+    <row r="311" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A311" s="12"/>
       <c r="B311" s="12"/>
       <c r="C311" s="12"/>
@@ -8024,7 +8029,7 @@
       <c r="U311" s="12"/>
       <c r="V311" s="12"/>
     </row>
-    <row r="312" spans="1:22">
+    <row r="312" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A312" s="12"/>
       <c r="B312" s="12"/>
       <c r="C312" s="12"/>
@@ -8048,7 +8053,7 @@
       <c r="U312" s="12"/>
       <c r="V312" s="12"/>
     </row>
-    <row r="313" spans="1:22">
+    <row r="313" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A313" s="12"/>
       <c r="B313" s="12"/>
       <c r="C313" s="12"/>
@@ -8072,7 +8077,7 @@
       <c r="U313" s="12"/>
       <c r="V313" s="12"/>
     </row>
-    <row r="314" spans="1:22">
+    <row r="314" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A314" s="12"/>
       <c r="B314" s="12"/>
       <c r="C314" s="12"/>
@@ -8096,7 +8101,7 @@
       <c r="U314" s="12"/>
       <c r="V314" s="12"/>
     </row>
-    <row r="315" spans="1:22">
+    <row r="315" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A315" s="12"/>
       <c r="B315" s="12"/>
       <c r="C315" s="12"/>
@@ -8120,7 +8125,7 @@
       <c r="U315" s="12"/>
       <c r="V315" s="12"/>
     </row>
-    <row r="316" spans="1:22">
+    <row r="316" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A316" s="12"/>
       <c r="B316" s="12"/>
       <c r="C316" s="12"/>
@@ -8144,7 +8149,7 @@
       <c r="U316" s="12"/>
       <c r="V316" s="12"/>
     </row>
-    <row r="317" spans="1:22">
+    <row r="317" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A317" s="12"/>
       <c r="B317" s="12"/>
       <c r="C317" s="12"/>
@@ -8168,7 +8173,7 @@
       <c r="U317" s="12"/>
       <c r="V317" s="12"/>
     </row>
-    <row r="318" spans="1:22">
+    <row r="318" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A318" s="12"/>
       <c r="B318" s="12"/>
       <c r="C318" s="12"/>
@@ -8192,7 +8197,7 @@
       <c r="U318" s="12"/>
       <c r="V318" s="12"/>
     </row>
-    <row r="319" spans="1:22">
+    <row r="319" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A319" s="12"/>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
@@ -8216,7 +8221,7 @@
       <c r="U319" s="12"/>
       <c r="V319" s="12"/>
     </row>
-    <row r="320" spans="1:22">
+    <row r="320" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
       <c r="C320" s="12"/>
@@ -8240,7 +8245,7 @@
       <c r="U320" s="12"/>
       <c r="V320" s="12"/>
     </row>
-    <row r="321" spans="1:22">
+    <row r="321" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A321" s="12"/>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
@@ -8264,7 +8269,7 @@
       <c r="U321" s="12"/>
       <c r="V321" s="12"/>
     </row>
-    <row r="322" spans="1:22">
+    <row r="322" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A322" s="12"/>
       <c r="B322" s="12"/>
       <c r="C322" s="12"/>
@@ -8288,7 +8293,7 @@
       <c r="U322" s="12"/>
       <c r="V322" s="12"/>
     </row>
-    <row r="323" spans="1:22">
+    <row r="323" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
@@ -8312,7 +8317,7 @@
       <c r="U323" s="12"/>
       <c r="V323" s="12"/>
     </row>
-    <row r="324" spans="1:22">
+    <row r="324" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
@@ -8336,7 +8341,7 @@
       <c r="U324" s="12"/>
       <c r="V324" s="12"/>
     </row>
-    <row r="325" spans="1:22">
+    <row r="325" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -8360,7 +8365,7 @@
       <c r="U325" s="12"/>
       <c r="V325" s="12"/>
     </row>
-    <row r="326" spans="1:22">
+    <row r="326" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A326" s="12"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
@@ -8384,7 +8389,7 @@
       <c r="U326" s="12"/>
       <c r="V326" s="12"/>
     </row>
-    <row r="327" spans="1:22">
+    <row r="327" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A327" s="12"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
@@ -8408,7 +8413,7 @@
       <c r="U327" s="12"/>
       <c r="V327" s="12"/>
     </row>
-    <row r="328" spans="1:22">
+    <row r="328" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A328" s="12"/>
       <c r="B328" s="12"/>
       <c r="C328" s="12"/>
@@ -8432,7 +8437,7 @@
       <c r="U328" s="12"/>
       <c r="V328" s="12"/>
     </row>
-    <row r="329" spans="1:22">
+    <row r="329" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A329" s="12"/>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
@@ -8456,7 +8461,7 @@
       <c r="U329" s="12"/>
       <c r="V329" s="12"/>
     </row>
-    <row r="330" spans="1:22">
+    <row r="330" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A330" s="12"/>
       <c r="B330" s="12"/>
       <c r="C330" s="12"/>
@@ -8480,7 +8485,7 @@
       <c r="U330" s="12"/>
       <c r="V330" s="12"/>
     </row>
-    <row r="331" spans="1:22">
+    <row r="331" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A331" s="12"/>
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
@@ -8504,7 +8509,7 @@
       <c r="U331" s="12"/>
       <c r="V331" s="12"/>
     </row>
-    <row r="332" spans="1:22">
+    <row r="332" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A332" s="12"/>
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
@@ -8528,7 +8533,7 @@
       <c r="U332" s="12"/>
       <c r="V332" s="12"/>
     </row>
-    <row r="333" spans="1:22">
+    <row r="333" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A333" s="12"/>
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
@@ -8552,7 +8557,7 @@
       <c r="U333" s="12"/>
       <c r="V333" s="12"/>
     </row>
-    <row r="334" spans="1:22">
+    <row r="334" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A334" s="12"/>
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
@@ -8576,7 +8581,7 @@
       <c r="U334" s="12"/>
       <c r="V334" s="12"/>
     </row>
-    <row r="335" spans="1:22">
+    <row r="335" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A335" s="12"/>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
@@ -8600,7 +8605,7 @@
       <c r="U335" s="12"/>
       <c r="V335" s="12"/>
     </row>
-    <row r="336" spans="1:22">
+    <row r="336" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A336" s="12"/>
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
@@ -8624,7 +8629,7 @@
       <c r="U336" s="12"/>
       <c r="V336" s="12"/>
     </row>
-    <row r="337" spans="1:22">
+    <row r="337" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
@@ -8648,7 +8653,7 @@
       <c r="U337" s="12"/>
       <c r="V337" s="12"/>
     </row>
-    <row r="338" spans="1:22">
+    <row r="338" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A338" s="12"/>
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
@@ -8672,7 +8677,7 @@
       <c r="U338" s="12"/>
       <c r="V338" s="12"/>
     </row>
-    <row r="339" spans="1:22">
+    <row r="339" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A339" s="12"/>
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
@@ -8696,7 +8701,7 @@
       <c r="U339" s="12"/>
       <c r="V339" s="12"/>
     </row>
-    <row r="340" spans="1:22">
+    <row r="340" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A340" s="12"/>
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
@@ -8720,7 +8725,7 @@
       <c r="U340" s="12"/>
       <c r="V340" s="12"/>
     </row>
-    <row r="341" spans="1:22">
+    <row r="341" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A341" s="12"/>
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
@@ -8744,7 +8749,7 @@
       <c r="U341" s="12"/>
       <c r="V341" s="12"/>
     </row>
-    <row r="342" spans="1:22">
+    <row r="342" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
       <c r="B342" s="12"/>
       <c r="C342" s="12"/>
@@ -8768,7 +8773,7 @@
       <c r="U342" s="12"/>
       <c r="V342" s="12"/>
     </row>
-    <row r="343" spans="1:22">
+    <row r="343" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A343" s="12"/>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
@@ -8792,7 +8797,7 @@
       <c r="U343" s="12"/>
       <c r="V343" s="12"/>
     </row>
-    <row r="344" spans="1:22">
+    <row r="344" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A344" s="12"/>
       <c r="B344" s="12"/>
       <c r="C344" s="12"/>
@@ -8816,7 +8821,7 @@
       <c r="U344" s="12"/>
       <c r="V344" s="12"/>
     </row>
-    <row r="345" spans="1:22">
+    <row r="345" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A345" s="12"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
@@ -8840,7 +8845,7 @@
       <c r="U345" s="12"/>
       <c r="V345" s="12"/>
     </row>
-    <row r="346" spans="1:22">
+    <row r="346" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A346" s="12"/>
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
@@ -8864,7 +8869,7 @@
       <c r="U346" s="12"/>
       <c r="V346" s="12"/>
     </row>
-    <row r="347" spans="1:22">
+    <row r="347" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A347" s="12"/>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
@@ -8888,7 +8893,7 @@
       <c r="U347" s="12"/>
       <c r="V347" s="12"/>
     </row>
-    <row r="348" spans="1:22">
+    <row r="348" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A348" s="12"/>
       <c r="B348" s="12"/>
       <c r="C348" s="12"/>
@@ -8912,7 +8917,7 @@
       <c r="U348" s="12"/>
       <c r="V348" s="12"/>
     </row>
-    <row r="349" spans="1:22">
+    <row r="349" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A349" s="12"/>
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
@@ -8936,7 +8941,7 @@
       <c r="U349" s="12"/>
       <c r="V349" s="12"/>
     </row>
-    <row r="350" spans="1:22">
+    <row r="350" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A350" s="12"/>
       <c r="B350" s="12"/>
       <c r="C350" s="12"/>
@@ -8960,7 +8965,7 @@
       <c r="U350" s="12"/>
       <c r="V350" s="12"/>
     </row>
-    <row r="351" spans="1:22">
+    <row r="351" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A351" s="12"/>
       <c r="B351" s="12"/>
       <c r="C351" s="12"/>
@@ -8984,7 +8989,7 @@
       <c r="U351" s="12"/>
       <c r="V351" s="12"/>
     </row>
-    <row r="352" spans="1:22">
+    <row r="352" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A352" s="12"/>
       <c r="B352" s="12"/>
       <c r="C352" s="12"/>
@@ -9008,7 +9013,7 @@
       <c r="U352" s="12"/>
       <c r="V352" s="12"/>
     </row>
-    <row r="353" spans="1:22">
+    <row r="353" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A353" s="12"/>
       <c r="B353" s="12"/>
       <c r="C353" s="12"/>
@@ -9032,7 +9037,7 @@
       <c r="U353" s="12"/>
       <c r="V353" s="12"/>
     </row>
-    <row r="354" spans="1:22">
+    <row r="354" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A354" s="12"/>
       <c r="B354" s="12"/>
       <c r="C354" s="12"/>
@@ -9056,7 +9061,7 @@
       <c r="U354" s="12"/>
       <c r="V354" s="12"/>
     </row>
-    <row r="355" spans="1:22">
+    <row r="355" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A355" s="12"/>
       <c r="B355" s="12"/>
       <c r="C355" s="12"/>
@@ -9080,7 +9085,7 @@
       <c r="U355" s="12"/>
       <c r="V355" s="12"/>
     </row>
-    <row r="356" spans="1:22">
+    <row r="356" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A356" s="12"/>
       <c r="B356" s="12"/>
       <c r="C356" s="12"/>
@@ -9104,7 +9109,7 @@
       <c r="U356" s="12"/>
       <c r="V356" s="12"/>
     </row>
-    <row r="357" spans="1:22">
+    <row r="357" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A357" s="12"/>
       <c r="B357" s="12"/>
       <c r="C357" s="12"/>
@@ -9128,7 +9133,7 @@
       <c r="U357" s="12"/>
       <c r="V357" s="12"/>
     </row>
-    <row r="358" spans="1:22">
+    <row r="358" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A358" s="12"/>
       <c r="B358" s="12"/>
       <c r="C358" s="12"/>
@@ -9152,7 +9157,7 @@
       <c r="U358" s="12"/>
       <c r="V358" s="12"/>
     </row>
-    <row r="359" spans="1:22">
+    <row r="359" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A359" s="12"/>
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
@@ -9176,7 +9181,7 @@
       <c r="U359" s="12"/>
       <c r="V359" s="12"/>
     </row>
-    <row r="360" spans="1:22">
+    <row r="360" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A360" s="12"/>
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
@@ -9200,7 +9205,7 @@
       <c r="U360" s="12"/>
       <c r="V360" s="12"/>
     </row>
-    <row r="361" spans="1:22">
+    <row r="361" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A361" s="12"/>
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
@@ -9224,7 +9229,7 @@
       <c r="U361" s="12"/>
       <c r="V361" s="12"/>
     </row>
-    <row r="362" spans="1:22">
+    <row r="362" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A362" s="12"/>
       <c r="B362" s="12"/>
       <c r="C362" s="12"/>
@@ -9248,7 +9253,7 @@
       <c r="U362" s="12"/>
       <c r="V362" s="12"/>
     </row>
-    <row r="363" spans="1:22">
+    <row r="363" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A363" s="12"/>
       <c r="B363" s="12"/>
       <c r="C363" s="12"/>
@@ -9272,7 +9277,7 @@
       <c r="U363" s="12"/>
       <c r="V363" s="12"/>
     </row>
-    <row r="364" spans="1:22">
+    <row r="364" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A364" s="12"/>
       <c r="B364" s="12"/>
       <c r="C364" s="12"/>
@@ -9296,7 +9301,7 @@
       <c r="U364" s="12"/>
       <c r="V364" s="12"/>
     </row>
-    <row r="365" spans="1:22">
+    <row r="365" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A365" s="12"/>
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
@@ -9320,7 +9325,7 @@
       <c r="U365" s="12"/>
       <c r="V365" s="12"/>
     </row>
-    <row r="366" spans="1:22">
+    <row r="366" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A366" s="12"/>
       <c r="B366" s="12"/>
       <c r="C366" s="12"/>
@@ -9344,7 +9349,7 @@
       <c r="U366" s="12"/>
       <c r="V366" s="12"/>
     </row>
-    <row r="367" spans="1:22">
+    <row r="367" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A367" s="12"/>
       <c r="B367" s="12"/>
       <c r="C367" s="12"/>
@@ -9368,7 +9373,7 @@
       <c r="U367" s="12"/>
       <c r="V367" s="12"/>
     </row>
-    <row r="368" spans="1:22">
+    <row r="368" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A368" s="12"/>
       <c r="B368" s="12"/>
       <c r="C368" s="12"/>
@@ -9392,7 +9397,7 @@
       <c r="U368" s="12"/>
       <c r="V368" s="12"/>
     </row>
-    <row r="369" spans="1:22">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A369" s="12"/>
       <c r="B369" s="12"/>
       <c r="C369" s="12"/>
@@ -9416,7 +9421,7 @@
       <c r="U369" s="12"/>
       <c r="V369" s="12"/>
     </row>
-    <row r="370" spans="1:22">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A370" s="12"/>
       <c r="B370" s="12"/>
       <c r="C370" s="12"/>
@@ -9440,7 +9445,7 @@
       <c r="U370" s="12"/>
       <c r="V370" s="12"/>
     </row>
-    <row r="371" spans="1:22">
+    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A371" s="12"/>
       <c r="B371" s="12"/>
       <c r="C371" s="12"/>
@@ -9464,7 +9469,7 @@
       <c r="U371" s="12"/>
       <c r="V371" s="12"/>
     </row>
-    <row r="372" spans="1:22">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A372" s="12"/>
       <c r="B372" s="12"/>
       <c r="C372" s="12"/>
@@ -9488,7 +9493,7 @@
       <c r="U372" s="12"/>
       <c r="V372" s="12"/>
     </row>
-    <row r="373" spans="1:22">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A373" s="12"/>
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
@@ -9512,7 +9517,7 @@
       <c r="U373" s="12"/>
       <c r="V373" s="12"/>
     </row>
-    <row r="374" spans="1:22">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A374" s="12"/>
       <c r="B374" s="12"/>
       <c r="C374" s="12"/>
@@ -9536,7 +9541,7 @@
       <c r="U374" s="12"/>
       <c r="V374" s="12"/>
     </row>
-    <row r="375" spans="1:22">
+    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A375" s="12"/>
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
@@ -9560,7 +9565,7 @@
       <c r="U375" s="12"/>
       <c r="V375" s="12"/>
     </row>
-    <row r="376" spans="1:22">
+    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A376" s="12"/>
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
@@ -9584,7 +9589,7 @@
       <c r="U376" s="12"/>
       <c r="V376" s="12"/>
     </row>
-    <row r="377" spans="1:22">
+    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A377" s="12"/>
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
@@ -9608,7 +9613,7 @@
       <c r="U377" s="12"/>
       <c r="V377" s="12"/>
     </row>
-    <row r="378" spans="1:22">
+    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A378" s="12"/>
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
@@ -9632,7 +9637,7 @@
       <c r="U378" s="12"/>
       <c r="V378" s="12"/>
     </row>
-    <row r="379" spans="1:22">
+    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A379" s="12"/>
       <c r="B379" s="12"/>
       <c r="C379" s="12"/>
@@ -9656,7 +9661,7 @@
       <c r="U379" s="12"/>
       <c r="V379" s="12"/>
     </row>
-    <row r="380" spans="1:22">
+    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A380" s="12"/>
       <c r="B380" s="12"/>
       <c r="C380" s="12"/>
@@ -9680,7 +9685,7 @@
       <c r="U380" s="12"/>
       <c r="V380" s="12"/>
     </row>
-    <row r="381" spans="1:22">
+    <row r="381" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A381" s="12"/>
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
@@ -9704,7 +9709,7 @@
       <c r="U381" s="12"/>
       <c r="V381" s="12"/>
     </row>
-    <row r="382" spans="1:22">
+    <row r="382" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A382" s="12"/>
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
@@ -9728,7 +9733,7 @@
       <c r="U382" s="12"/>
       <c r="V382" s="12"/>
     </row>
-    <row r="383" spans="1:22">
+    <row r="383" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A383" s="12"/>
       <c r="B383" s="12"/>
       <c r="C383" s="12"/>
@@ -9752,7 +9757,7 @@
       <c r="U383" s="12"/>
       <c r="V383" s="12"/>
     </row>
-    <row r="384" spans="1:22">
+    <row r="384" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A384" s="12"/>
       <c r="B384" s="12"/>
       <c r="C384" s="12"/>
@@ -9776,7 +9781,7 @@
       <c r="U384" s="12"/>
       <c r="V384" s="12"/>
     </row>
-    <row r="385" spans="1:22">
+    <row r="385" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A385" s="12"/>
       <c r="B385" s="12"/>
       <c r="C385" s="12"/>
@@ -9800,7 +9805,7 @@
       <c r="U385" s="12"/>
       <c r="V385" s="12"/>
     </row>
-    <row r="386" spans="1:22">
+    <row r="386" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A386" s="12"/>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
@@ -9824,7 +9829,7 @@
       <c r="U386" s="12"/>
       <c r="V386" s="12"/>
     </row>
-    <row r="387" spans="1:22">
+    <row r="387" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A387" s="12"/>
       <c r="B387" s="12"/>
       <c r="C387" s="12"/>
@@ -9848,7 +9853,7 @@
       <c r="U387" s="12"/>
       <c r="V387" s="12"/>
     </row>
-    <row r="388" spans="1:22">
+    <row r="388" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A388" s="12"/>
       <c r="B388" s="12"/>
       <c r="C388" s="12"/>
@@ -9872,7 +9877,7 @@
       <c r="U388" s="12"/>
       <c r="V388" s="12"/>
     </row>
-    <row r="389" spans="1:22">
+    <row r="389" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A389" s="12"/>
       <c r="B389" s="12"/>
       <c r="C389" s="12"/>
@@ -9896,7 +9901,7 @@
       <c r="U389" s="12"/>
       <c r="V389" s="12"/>
     </row>
-    <row r="390" spans="1:22">
+    <row r="390" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A390" s="12"/>
       <c r="B390" s="12"/>
       <c r="C390" s="12"/>
@@ -9920,7 +9925,7 @@
       <c r="U390" s="12"/>
       <c r="V390" s="12"/>
     </row>
-    <row r="391" spans="1:22">
+    <row r="391" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A391" s="12"/>
       <c r="B391" s="12"/>
       <c r="C391" s="12"/>
@@ -9944,7 +9949,7 @@
       <c r="U391" s="12"/>
       <c r="V391" s="12"/>
     </row>
-    <row r="392" spans="1:22">
+    <row r="392" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A392" s="12"/>
       <c r="B392" s="12"/>
       <c r="C392" s="12"/>
@@ -9968,7 +9973,7 @@
       <c r="U392" s="12"/>
       <c r="V392" s="12"/>
     </row>
-    <row r="393" spans="1:22">
+    <row r="393" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A393" s="12"/>
       <c r="B393" s="12"/>
       <c r="C393" s="12"/>
@@ -9992,7 +9997,7 @@
       <c r="U393" s="12"/>
       <c r="V393" s="12"/>
     </row>
-    <row r="394" spans="1:22">
+    <row r="394" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A394" s="12"/>
       <c r="B394" s="12"/>
       <c r="C394" s="12"/>
@@ -10016,7 +10021,7 @@
       <c r="U394" s="12"/>
       <c r="V394" s="12"/>
     </row>
-    <row r="395" spans="1:22">
+    <row r="395" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A395" s="12"/>
       <c r="B395" s="12"/>
       <c r="C395" s="12"/>
@@ -10040,7 +10045,7 @@
       <c r="U395" s="12"/>
       <c r="V395" s="12"/>
     </row>
-    <row r="396" spans="1:22">
+    <row r="396" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A396" s="12"/>
       <c r="B396" s="12"/>
       <c r="C396" s="12"/>
@@ -10064,7 +10069,7 @@
       <c r="U396" s="12"/>
       <c r="V396" s="12"/>
     </row>
-    <row r="397" spans="1:22">
+    <row r="397" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A397" s="12"/>
       <c r="B397" s="12"/>
       <c r="C397" s="12"/>
@@ -10088,7 +10093,7 @@
       <c r="U397" s="12"/>
       <c r="V397" s="12"/>
     </row>
-    <row r="398" spans="1:22">
+    <row r="398" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A398" s="12"/>
       <c r="B398" s="12"/>
       <c r="C398" s="12"/>
@@ -10112,7 +10117,7 @@
       <c r="U398" s="12"/>
       <c r="V398" s="12"/>
     </row>
-    <row r="399" spans="1:22">
+    <row r="399" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A399" s="12"/>
       <c r="B399" s="12"/>
       <c r="C399" s="12"/>
@@ -10136,7 +10141,7 @@
       <c r="U399" s="12"/>
       <c r="V399" s="12"/>
     </row>
-    <row r="400" spans="1:22">
+    <row r="400" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A400" s="12"/>
       <c r="B400" s="12"/>
       <c r="C400" s="12"/>
@@ -10160,7 +10165,7 @@
       <c r="U400" s="12"/>
       <c r="V400" s="12"/>
     </row>
-    <row r="401" spans="1:22">
+    <row r="401" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A401" s="12"/>
       <c r="B401" s="12"/>
       <c r="C401" s="12"/>
@@ -10184,7 +10189,7 @@
       <c r="U401" s="12"/>
       <c r="V401" s="12"/>
     </row>
-    <row r="402" spans="1:22">
+    <row r="402" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A402" s="12"/>
       <c r="B402" s="12"/>
       <c r="C402" s="12"/>
@@ -10208,7 +10213,7 @@
       <c r="U402" s="12"/>
       <c r="V402" s="12"/>
     </row>
-    <row r="403" spans="1:22">
+    <row r="403" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A403" s="12"/>
       <c r="B403" s="12"/>
       <c r="C403" s="12"/>
@@ -10232,7 +10237,7 @@
       <c r="U403" s="12"/>
       <c r="V403" s="12"/>
     </row>
-    <row r="404" spans="1:22">
+    <row r="404" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A404" s="12"/>
       <c r="B404" s="12"/>
       <c r="C404" s="12"/>
@@ -10256,7 +10261,7 @@
       <c r="U404" s="12"/>
       <c r="V404" s="12"/>
     </row>
-    <row r="405" spans="1:22">
+    <row r="405" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A405" s="12"/>
       <c r="B405" s="12"/>
       <c r="C405" s="12"/>
@@ -10280,7 +10285,7 @@
       <c r="U405" s="12"/>
       <c r="V405" s="12"/>
     </row>
-    <row r="406" spans="1:22">
+    <row r="406" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A406" s="12"/>
       <c r="B406" s="12"/>
       <c r="C406" s="12"/>
@@ -10304,7 +10309,7 @@
       <c r="U406" s="12"/>
       <c r="V406" s="12"/>
     </row>
-    <row r="407" spans="1:22">
+    <row r="407" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A407" s="12"/>
       <c r="B407" s="12"/>
       <c r="C407" s="12"/>
@@ -10328,7 +10333,7 @@
       <c r="U407" s="12"/>
       <c r="V407" s="12"/>
     </row>
-    <row r="408" spans="1:22">
+    <row r="408" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A408" s="12"/>
       <c r="B408" s="12"/>
       <c r="C408" s="12"/>
@@ -10352,7 +10357,7 @@
       <c r="U408" s="12"/>
       <c r="V408" s="12"/>
     </row>
-    <row r="409" spans="1:22">
+    <row r="409" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A409" s="12"/>
       <c r="B409" s="12"/>
       <c r="C409" s="12"/>
@@ -10376,7 +10381,7 @@
       <c r="U409" s="12"/>
       <c r="V409" s="12"/>
     </row>
-    <row r="410" spans="1:22">
+    <row r="410" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A410" s="12"/>
       <c r="B410" s="12"/>
       <c r="C410" s="12"/>
@@ -10400,7 +10405,7 @@
       <c r="U410" s="12"/>
       <c r="V410" s="12"/>
     </row>
-    <row r="411" spans="1:22">
+    <row r="411" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A411" s="12"/>
       <c r="B411" s="12"/>
       <c r="C411" s="12"/>
@@ -10424,7 +10429,7 @@
       <c r="U411" s="12"/>
       <c r="V411" s="12"/>
     </row>
-    <row r="412" spans="1:22">
+    <row r="412" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A412" s="12"/>
       <c r="B412" s="12"/>
       <c r="C412" s="12"/>
@@ -10448,7 +10453,7 @@
       <c r="U412" s="12"/>
       <c r="V412" s="12"/>
     </row>
-    <row r="413" spans="1:22">
+    <row r="413" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A413" s="12"/>
       <c r="B413" s="12"/>
       <c r="C413" s="12"/>
@@ -10472,7 +10477,7 @@
       <c r="U413" s="12"/>
       <c r="V413" s="12"/>
     </row>
-    <row r="414" spans="1:22">
+    <row r="414" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A414" s="12"/>
       <c r="B414" s="12"/>
       <c r="C414" s="12"/>
@@ -10496,7 +10501,7 @@
       <c r="U414" s="12"/>
       <c r="V414" s="12"/>
     </row>
-    <row r="415" spans="1:22">
+    <row r="415" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A415" s="12"/>
       <c r="B415" s="12"/>
       <c r="C415" s="12"/>
@@ -10520,7 +10525,7 @@
       <c r="U415" s="12"/>
       <c r="V415" s="12"/>
     </row>
-    <row r="416" spans="1:22">
+    <row r="416" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A416" s="12"/>
       <c r="B416" s="12"/>
       <c r="C416" s="12"/>
@@ -10544,7 +10549,7 @@
       <c r="U416" s="12"/>
       <c r="V416" s="12"/>
     </row>
-    <row r="417" spans="1:22">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A417" s="12"/>
       <c r="B417" s="12"/>
       <c r="C417" s="12"/>
@@ -10568,7 +10573,7 @@
       <c r="U417" s="12"/>
       <c r="V417" s="12"/>
     </row>
-    <row r="418" spans="1:22">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A418" s="12"/>
       <c r="B418" s="12"/>
       <c r="C418" s="12"/>
@@ -10592,7 +10597,7 @@
       <c r="U418" s="12"/>
       <c r="V418" s="12"/>
     </row>
-    <row r="419" spans="1:22">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A419" s="12"/>
       <c r="B419" s="12"/>
       <c r="C419" s="12"/>
@@ -10616,7 +10621,7 @@
       <c r="U419" s="12"/>
       <c r="V419" s="12"/>
     </row>
-    <row r="420" spans="1:22">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A420" s="12"/>
       <c r="B420" s="12"/>
       <c r="C420" s="12"/>
@@ -10640,7 +10645,7 @@
       <c r="U420" s="12"/>
       <c r="V420" s="12"/>
     </row>
-    <row r="421" spans="1:22">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A421" s="12"/>
       <c r="B421" s="12"/>
       <c r="C421" s="12"/>
@@ -10664,7 +10669,7 @@
       <c r="U421" s="12"/>
       <c r="V421" s="12"/>
     </row>
-    <row r="422" spans="1:22">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A422" s="12"/>
       <c r="B422" s="12"/>
       <c r="C422" s="12"/>
@@ -10688,7 +10693,7 @@
       <c r="U422" s="12"/>
       <c r="V422" s="12"/>
     </row>
-    <row r="423" spans="1:22">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A423" s="12"/>
       <c r="B423" s="12"/>
       <c r="C423" s="12"/>
@@ -10712,7 +10717,7 @@
       <c r="U423" s="12"/>
       <c r="V423" s="12"/>
     </row>
-    <row r="424" spans="1:22">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A424" s="12"/>
       <c r="B424" s="12"/>
       <c r="C424" s="12"/>
@@ -10736,7 +10741,7 @@
       <c r="U424" s="12"/>
       <c r="V424" s="12"/>
     </row>
-    <row r="425" spans="1:22">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A425" s="12"/>
       <c r="B425" s="12"/>
       <c r="C425" s="12"/>
@@ -10760,7 +10765,7 @@
       <c r="U425" s="12"/>
       <c r="V425" s="12"/>
     </row>
-    <row r="426" spans="1:22">
+    <row r="426" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A426" s="12"/>
       <c r="B426" s="12"/>
       <c r="C426" s="12"/>
@@ -10784,7 +10789,7 @@
       <c r="U426" s="12"/>
       <c r="V426" s="12"/>
     </row>
-    <row r="427" spans="1:22">
+    <row r="427" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A427" s="12"/>
       <c r="B427" s="12"/>
       <c r="C427" s="12"/>
@@ -10808,7 +10813,7 @@
       <c r="U427" s="12"/>
       <c r="V427" s="12"/>
     </row>
-    <row r="428" spans="1:22">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A428" s="12"/>
       <c r="B428" s="12"/>
       <c r="C428" s="12"/>
@@ -10832,7 +10837,7 @@
       <c r="U428" s="12"/>
       <c r="V428" s="12"/>
     </row>
-    <row r="429" spans="1:22">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A429" s="12"/>
       <c r="B429" s="12"/>
       <c r="C429" s="12"/>
@@ -10856,7 +10861,7 @@
       <c r="U429" s="12"/>
       <c r="V429" s="12"/>
     </row>
-    <row r="430" spans="1:22">
+    <row r="430" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A430" s="12"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
@@ -10880,7 +10885,7 @@
       <c r="U430" s="12"/>
       <c r="V430" s="12"/>
     </row>
-    <row r="431" spans="1:22">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A431" s="12"/>
       <c r="B431" s="12"/>
       <c r="C431" s="12"/>
@@ -10904,7 +10909,7 @@
       <c r="U431" s="12"/>
       <c r="V431" s="12"/>
     </row>
-    <row r="432" spans="1:22">
+    <row r="432" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A432" s="12"/>
       <c r="B432" s="12"/>
       <c r="C432" s="12"/>
@@ -10928,7 +10933,7 @@
       <c r="U432" s="12"/>
       <c r="V432" s="12"/>
     </row>
-    <row r="433" spans="1:22">
+    <row r="433" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A433" s="12"/>
       <c r="B433" s="12"/>
       <c r="C433" s="12"/>
@@ -10952,7 +10957,7 @@
       <c r="U433" s="12"/>
       <c r="V433" s="12"/>
     </row>
-    <row r="434" spans="1:22">
+    <row r="434" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A434" s="12"/>
       <c r="B434" s="12"/>
       <c r="C434" s="12"/>
@@ -10976,7 +10981,7 @@
       <c r="U434" s="12"/>
       <c r="V434" s="12"/>
     </row>
-    <row r="435" spans="1:22">
+    <row r="435" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A435" s="12"/>
       <c r="B435" s="12"/>
       <c r="C435" s="12"/>
@@ -11000,7 +11005,7 @@
       <c r="U435" s="12"/>
       <c r="V435" s="12"/>
     </row>
-    <row r="436" spans="1:22">
+    <row r="436" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A436" s="12"/>
       <c r="B436" s="12"/>
       <c r="C436" s="12"/>
@@ -11024,7 +11029,7 @@
       <c r="U436" s="12"/>
       <c r="V436" s="12"/>
     </row>
-    <row r="437" spans="1:22">
+    <row r="437" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A437" s="12"/>
       <c r="B437" s="12"/>
       <c r="C437" s="12"/>
@@ -11048,7 +11053,7 @@
       <c r="U437" s="12"/>
       <c r="V437" s="12"/>
     </row>
-    <row r="438" spans="1:22">
+    <row r="438" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A438" s="12"/>
       <c r="B438" s="12"/>
       <c r="C438" s="12"/>
@@ -11072,7 +11077,7 @@
       <c r="U438" s="12"/>
       <c r="V438" s="12"/>
     </row>
-    <row r="439" spans="1:22">
+    <row r="439" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A439" s="12"/>
       <c r="B439" s="12"/>
       <c r="C439" s="12"/>
@@ -11096,7 +11101,7 @@
       <c r="U439" s="12"/>
       <c r="V439" s="12"/>
     </row>
-    <row r="440" spans="1:22">
+    <row r="440" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A440" s="12"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
@@ -11120,7 +11125,7 @@
       <c r="U440" s="12"/>
       <c r="V440" s="12"/>
     </row>
-    <row r="441" spans="1:22">
+    <row r="441" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A441" s="12"/>
       <c r="B441" s="12"/>
       <c r="C441" s="12"/>
@@ -11144,7 +11149,7 @@
       <c r="U441" s="12"/>
       <c r="V441" s="12"/>
     </row>
-    <row r="442" spans="1:22">
+    <row r="442" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A442" s="12"/>
       <c r="B442" s="12"/>
       <c r="C442" s="12"/>
@@ -11168,7 +11173,7 @@
       <c r="U442" s="12"/>
       <c r="V442" s="12"/>
     </row>
-    <row r="443" spans="1:22">
+    <row r="443" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A443" s="12"/>
       <c r="B443" s="12"/>
       <c r="C443" s="12"/>
@@ -11192,7 +11197,7 @@
       <c r="U443" s="12"/>
       <c r="V443" s="12"/>
     </row>
-    <row r="444" spans="1:22">
+    <row r="444" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A444" s="12"/>
       <c r="B444" s="12"/>
       <c r="C444" s="12"/>
@@ -11216,7 +11221,7 @@
       <c r="U444" s="12"/>
       <c r="V444" s="12"/>
     </row>
-    <row r="445" spans="1:22">
+    <row r="445" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A445" s="12"/>
       <c r="B445" s="12"/>
       <c r="C445" s="12"/>
@@ -11240,7 +11245,7 @@
       <c r="U445" s="12"/>
       <c r="V445" s="12"/>
     </row>
-    <row r="446" spans="1:22">
+    <row r="446" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A446" s="12"/>
       <c r="B446" s="12"/>
       <c r="C446" s="12"/>
@@ -11264,7 +11269,7 @@
       <c r="U446" s="12"/>
       <c r="V446" s="12"/>
     </row>
-    <row r="447" spans="1:22">
+    <row r="447" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A447" s="12"/>
       <c r="B447" s="12"/>
       <c r="C447" s="12"/>
@@ -11288,7 +11293,7 @@
       <c r="U447" s="12"/>
       <c r="V447" s="12"/>
     </row>
-    <row r="448" spans="1:22">
+    <row r="448" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A448" s="12"/>
       <c r="B448" s="12"/>
       <c r="C448" s="12"/>
@@ -11312,7 +11317,7 @@
       <c r="U448" s="12"/>
       <c r="V448" s="12"/>
     </row>
-    <row r="449" spans="1:22">
+    <row r="449" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A449" s="12"/>
       <c r="B449" s="12"/>
       <c r="C449" s="12"/>
@@ -11336,7 +11341,7 @@
       <c r="U449" s="12"/>
       <c r="V449" s="12"/>
     </row>
-    <row r="450" spans="1:22">
+    <row r="450" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A450" s="12"/>
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
@@ -11360,7 +11365,7 @@
       <c r="U450" s="12"/>
       <c r="V450" s="12"/>
     </row>
-    <row r="451" spans="1:22">
+    <row r="451" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A451" s="12"/>
       <c r="B451" s="12"/>
       <c r="C451" s="12"/>
@@ -11384,7 +11389,7 @@
       <c r="U451" s="12"/>
       <c r="V451" s="12"/>
     </row>
-    <row r="452" spans="1:22">
+    <row r="452" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A452" s="12"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
@@ -11408,7 +11413,7 @@
       <c r="U452" s="12"/>
       <c r="V452" s="12"/>
     </row>
-    <row r="453" spans="1:22">
+    <row r="453" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A453" s="12"/>
       <c r="B453" s="12"/>
       <c r="C453" s="12"/>
@@ -11432,7 +11437,7 @@
       <c r="U453" s="12"/>
       <c r="V453" s="12"/>
     </row>
-    <row r="454" spans="1:22">
+    <row r="454" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A454" s="12"/>
       <c r="B454" s="12"/>
       <c r="C454" s="12"/>
@@ -11456,7 +11461,7 @@
       <c r="U454" s="12"/>
       <c r="V454" s="12"/>
     </row>
-    <row r="455" spans="1:22">
+    <row r="455" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A455" s="12"/>
       <c r="B455" s="12"/>
       <c r="C455" s="12"/>
@@ -11480,7 +11485,7 @@
       <c r="U455" s="12"/>
       <c r="V455" s="12"/>
     </row>
-    <row r="456" spans="1:22">
+    <row r="456" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A456" s="12"/>
       <c r="B456" s="12"/>
       <c r="C456" s="12"/>
@@ -11504,7 +11509,7 @@
       <c r="U456" s="12"/>
       <c r="V456" s="12"/>
     </row>
-    <row r="457" spans="1:22">
+    <row r="457" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A457" s="12"/>
       <c r="B457" s="12"/>
       <c r="C457" s="12"/>
@@ -11528,7 +11533,7 @@
       <c r="U457" s="12"/>
       <c r="V457" s="12"/>
     </row>
-    <row r="458" spans="1:22">
+    <row r="458" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A458" s="12"/>
       <c r="B458" s="12"/>
       <c r="C458" s="12"/>
@@ -11552,7 +11557,7 @@
       <c r="U458" s="12"/>
       <c r="V458" s="12"/>
     </row>
-    <row r="459" spans="1:22">
+    <row r="459" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A459" s="12"/>
       <c r="B459" s="12"/>
       <c r="C459" s="12"/>
@@ -11576,7 +11581,7 @@
       <c r="U459" s="12"/>
       <c r="V459" s="12"/>
     </row>
-    <row r="460" spans="1:22">
+    <row r="460" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A460" s="12"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
@@ -11600,7 +11605,7 @@
       <c r="U460" s="12"/>
       <c r="V460" s="12"/>
     </row>
-    <row r="461" spans="1:22">
+    <row r="461" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A461" s="12"/>
       <c r="B461" s="12"/>
       <c r="C461" s="12"/>
@@ -11624,7 +11629,7 @@
       <c r="U461" s="12"/>
       <c r="V461" s="12"/>
     </row>
-    <row r="462" spans="1:22">
+    <row r="462" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A462" s="12"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
@@ -11648,7 +11653,7 @@
       <c r="U462" s="12"/>
       <c r="V462" s="12"/>
     </row>
-    <row r="463" spans="1:22">
+    <row r="463" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A463" s="12"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
@@ -11672,7 +11677,7 @@
       <c r="U463" s="12"/>
       <c r="V463" s="12"/>
     </row>
-    <row r="464" spans="1:22">
+    <row r="464" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A464" s="12"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
@@ -11696,7 +11701,7 @@
       <c r="U464" s="12"/>
       <c r="V464" s="12"/>
     </row>
-    <row r="465" spans="1:22">
+    <row r="465" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A465" s="12"/>
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
@@ -11720,7 +11725,7 @@
       <c r="U465" s="12"/>
       <c r="V465" s="12"/>
     </row>
-    <row r="466" spans="1:22">
+    <row r="466" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A466" s="12"/>
       <c r="B466" s="12"/>
       <c r="C466" s="12"/>
@@ -11744,7 +11749,7 @@
       <c r="U466" s="12"/>
       <c r="V466" s="12"/>
     </row>
-    <row r="467" spans="1:22">
+    <row r="467" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A467" s="12"/>
       <c r="B467" s="12"/>
       <c r="C467" s="12"/>
@@ -11768,7 +11773,7 @@
       <c r="U467" s="12"/>
       <c r="V467" s="12"/>
     </row>
-    <row r="468" spans="1:22">
+    <row r="468" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A468" s="12"/>
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
@@ -11792,7 +11797,7 @@
       <c r="U468" s="12"/>
       <c r="V468" s="12"/>
     </row>
-    <row r="469" spans="1:22">
+    <row r="469" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A469" s="12"/>
       <c r="B469" s="12"/>
       <c r="C469" s="12"/>
@@ -11816,7 +11821,7 @@
       <c r="U469" s="12"/>
       <c r="V469" s="12"/>
     </row>
-    <row r="470" spans="1:22">
+    <row r="470" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A470" s="12"/>
       <c r="B470" s="12"/>
       <c r="C470" s="12"/>
@@ -11840,7 +11845,7 @@
       <c r="U470" s="12"/>
       <c r="V470" s="12"/>
     </row>
-    <row r="471" spans="1:22">
+    <row r="471" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A471" s="12"/>
       <c r="B471" s="12"/>
       <c r="C471" s="12"/>
@@ -11864,7 +11869,7 @@
       <c r="U471" s="12"/>
       <c r="V471" s="12"/>
     </row>
-    <row r="472" spans="1:22">
+    <row r="472" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A472" s="12"/>
       <c r="B472" s="12"/>
       <c r="C472" s="12"/>
@@ -11888,7 +11893,7 @@
       <c r="U472" s="12"/>
       <c r="V472" s="12"/>
     </row>
-    <row r="473" spans="1:22">
+    <row r="473" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A473" s="12"/>
       <c r="B473" s="12"/>
       <c r="C473" s="12"/>
@@ -11912,7 +11917,7 @@
       <c r="U473" s="12"/>
       <c r="V473" s="12"/>
     </row>
-    <row r="474" spans="1:22">
+    <row r="474" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A474" s="12"/>
       <c r="B474" s="12"/>
       <c r="C474" s="12"/>
@@ -11936,7 +11941,7 @@
       <c r="U474" s="12"/>
       <c r="V474" s="12"/>
     </row>
-    <row r="475" spans="1:22">
+    <row r="475" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A475" s="12"/>
       <c r="B475" s="12"/>
       <c r="C475" s="12"/>
@@ -11960,7 +11965,7 @@
       <c r="U475" s="12"/>
       <c r="V475" s="12"/>
     </row>
-    <row r="476" spans="1:22">
+    <row r="476" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A476" s="12"/>
       <c r="B476" s="12"/>
       <c r="C476" s="12"/>
@@ -11984,7 +11989,7 @@
       <c r="U476" s="12"/>
       <c r="V476" s="12"/>
     </row>
-    <row r="477" spans="1:22">
+    <row r="477" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A477" s="12"/>
       <c r="B477" s="12"/>
       <c r="C477" s="12"/>
@@ -12008,7 +12013,7 @@
       <c r="U477" s="12"/>
       <c r="V477" s="12"/>
     </row>
-    <row r="478" spans="1:22">
+    <row r="478" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A478" s="12"/>
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
@@ -12032,7 +12037,7 @@
       <c r="U478" s="12"/>
       <c r="V478" s="12"/>
     </row>
-    <row r="479" spans="1:22">
+    <row r="479" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A479" s="12"/>
       <c r="B479" s="12"/>
       <c r="C479" s="12"/>
@@ -12056,7 +12061,7 @@
       <c r="U479" s="12"/>
       <c r="V479" s="12"/>
     </row>
-    <row r="480" spans="1:22">
+    <row r="480" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A480" s="12"/>
       <c r="B480" s="12"/>
       <c r="C480" s="12"/>
@@ -12080,7 +12085,7 @@
       <c r="U480" s="12"/>
       <c r="V480" s="12"/>
     </row>
-    <row r="481" spans="1:22">
+    <row r="481" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A481" s="12"/>
       <c r="B481" s="12"/>
       <c r="C481" s="12"/>
@@ -12104,7 +12109,7 @@
       <c r="U481" s="12"/>
       <c r="V481" s="12"/>
     </row>
-    <row r="482" spans="1:22">
+    <row r="482" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A482" s="12"/>
       <c r="B482" s="12"/>
       <c r="C482" s="12"/>
@@ -12128,7 +12133,7 @@
       <c r="U482" s="12"/>
       <c r="V482" s="12"/>
     </row>
-    <row r="483" spans="1:22">
+    <row r="483" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A483" s="12"/>
       <c r="B483" s="12"/>
       <c r="C483" s="12"/>
@@ -12152,7 +12157,7 @@
       <c r="U483" s="12"/>
       <c r="V483" s="12"/>
     </row>
-    <row r="484" spans="1:22">
+    <row r="484" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A484" s="12"/>
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
@@ -12176,7 +12181,7 @@
       <c r="U484" s="12"/>
       <c r="V484" s="12"/>
     </row>
-    <row r="485" spans="1:22">
+    <row r="485" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A485" s="12"/>
       <c r="B485" s="12"/>
       <c r="C485" s="12"/>
@@ -12200,7 +12205,7 @@
       <c r="U485" s="12"/>
       <c r="V485" s="12"/>
     </row>
-    <row r="486" spans="1:22">
+    <row r="486" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A486" s="12"/>
       <c r="B486" s="12"/>
       <c r="C486" s="12"/>
@@ -12224,7 +12229,7 @@
       <c r="U486" s="12"/>
       <c r="V486" s="12"/>
     </row>
-    <row r="487" spans="1:22">
+    <row r="487" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A487" s="12"/>
       <c r="B487" s="12"/>
       <c r="C487" s="12"/>
@@ -12248,7 +12253,7 @@
       <c r="U487" s="12"/>
       <c r="V487" s="12"/>
     </row>
-    <row r="488" spans="1:22">
+    <row r="488" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A488" s="12"/>
       <c r="B488" s="12"/>
       <c r="C488" s="12"/>
@@ -12272,7 +12277,7 @@
       <c r="U488" s="12"/>
       <c r="V488" s="12"/>
     </row>
-    <row r="489" spans="1:22">
+    <row r="489" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A489" s="12"/>
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
@@ -12296,7 +12301,7 @@
       <c r="U489" s="12"/>
       <c r="V489" s="12"/>
     </row>
-    <row r="490" spans="1:22">
+    <row r="490" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A490" s="12"/>
       <c r="B490" s="12"/>
       <c r="C490" s="12"/>
@@ -12320,7 +12325,7 @@
       <c r="U490" s="12"/>
       <c r="V490" s="12"/>
     </row>
-    <row r="491" spans="1:22">
+    <row r="491" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A491" s="12"/>
       <c r="B491" s="12"/>
       <c r="C491" s="12"/>
@@ -12344,7 +12349,7 @@
       <c r="U491" s="12"/>
       <c r="V491" s="12"/>
     </row>
-    <row r="492" spans="1:22">
+    <row r="492" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A492" s="12"/>
       <c r="B492" s="12"/>
       <c r="C492" s="12"/>
@@ -12368,7 +12373,7 @@
       <c r="U492" s="12"/>
       <c r="V492" s="12"/>
     </row>
-    <row r="493" spans="1:22">
+    <row r="493" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A493" s="12"/>
       <c r="B493" s="12"/>
       <c r="C493" s="12"/>
@@ -12392,7 +12397,7 @@
       <c r="U493" s="12"/>
       <c r="V493" s="12"/>
     </row>
-    <row r="494" spans="1:22">
+    <row r="494" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A494" s="12"/>
       <c r="B494" s="12"/>
       <c r="C494" s="12"/>
@@ -12416,7 +12421,7 @@
       <c r="U494" s="12"/>
       <c r="V494" s="12"/>
     </row>
-    <row r="495" spans="1:22">
+    <row r="495" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A495" s="12"/>
       <c r="B495" s="12"/>
       <c r="C495" s="12"/>
@@ -12440,7 +12445,7 @@
       <c r="U495" s="12"/>
       <c r="V495" s="12"/>
     </row>
-    <row r="496" spans="1:22">
+    <row r="496" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A496" s="12"/>
       <c r="B496" s="12"/>
       <c r="C496" s="12"/>
@@ -12464,7 +12469,7 @@
       <c r="U496" s="12"/>
       <c r="V496" s="12"/>
     </row>
-    <row r="497" spans="1:22">
+    <row r="497" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A497" s="12"/>
       <c r="B497" s="12"/>
       <c r="C497" s="12"/>
@@ -12488,7 +12493,7 @@
       <c r="U497" s="12"/>
       <c r="V497" s="12"/>
     </row>
-    <row r="498" spans="1:22">
+    <row r="498" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A498" s="12"/>
       <c r="B498" s="12"/>
       <c r="C498" s="12"/>
@@ -12512,7 +12517,7 @@
       <c r="U498" s="12"/>
       <c r="V498" s="12"/>
     </row>
-    <row r="499" spans="1:22">
+    <row r="499" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A499" s="12"/>
       <c r="B499" s="12"/>
       <c r="C499" s="12"/>
@@ -12536,7 +12541,7 @@
       <c r="U499" s="12"/>
       <c r="V499" s="12"/>
     </row>
-    <row r="500" spans="1:22">
+    <row r="500" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A500" s="12"/>
       <c r="B500" s="12"/>
       <c r="C500" s="12"/>
@@ -12560,7 +12565,7 @@
       <c r="U500" s="12"/>
       <c r="V500" s="12"/>
     </row>
-    <row r="501" spans="1:22">
+    <row r="501" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A501" s="12"/>
       <c r="B501" s="12"/>
       <c r="C501" s="12"/>
@@ -12584,7 +12589,7 @@
       <c r="U501" s="12"/>
       <c r="V501" s="12"/>
     </row>
-    <row r="502" spans="1:22">
+    <row r="502" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A502" s="12"/>
       <c r="B502" s="12"/>
       <c r="C502" s="12"/>
@@ -12608,7 +12613,7 @@
       <c r="U502" s="12"/>
       <c r="V502" s="12"/>
     </row>
-    <row r="503" spans="1:22">
+    <row r="503" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A503" s="12"/>
       <c r="B503" s="12"/>
       <c r="C503" s="12"/>
@@ -12632,7 +12637,7 @@
       <c r="U503" s="12"/>
       <c r="V503" s="12"/>
     </row>
-    <row r="504" spans="1:22">
+    <row r="504" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -12656,7 +12661,7 @@
       <c r="U504" s="12"/>
       <c r="V504" s="12"/>
     </row>
-    <row r="505" spans="1:22">
+    <row r="505" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -12680,7 +12685,7 @@
       <c r="U505" s="12"/>
       <c r="V505" s="12"/>
     </row>
-    <row r="506" spans="1:22">
+    <row r="506" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -12704,7 +12709,7 @@
       <c r="U506" s="12"/>
       <c r="V506" s="12"/>
     </row>
-    <row r="507" spans="1:22">
+    <row r="507" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -12728,7 +12733,7 @@
       <c r="U507" s="12"/>
       <c r="V507" s="12"/>
     </row>
-    <row r="508" spans="1:22">
+    <row r="508" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -12752,7 +12757,7 @@
       <c r="U508" s="12"/>
       <c r="V508" s="12"/>
     </row>
-    <row r="509" spans="1:22">
+    <row r="509" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -12776,7 +12781,7 @@
       <c r="U509" s="12"/>
       <c r="V509" s="12"/>
     </row>
-    <row r="510" spans="1:22">
+    <row r="510" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -12800,7 +12805,7 @@
       <c r="U510" s="12"/>
       <c r="V510" s="12"/>
     </row>
-    <row r="511" spans="1:22">
+    <row r="511" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -12824,7 +12829,7 @@
       <c r="U511" s="12"/>
       <c r="V511" s="12"/>
     </row>
-    <row r="512" spans="1:22">
+    <row r="512" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -12848,7 +12853,7 @@
       <c r="U512" s="12"/>
       <c r="V512" s="12"/>
     </row>
-    <row r="513" spans="1:22">
+    <row r="513" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -12872,7 +12877,7 @@
       <c r="U513" s="12"/>
       <c r="V513" s="12"/>
     </row>
-    <row r="514" spans="1:22">
+    <row r="514" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -12896,7 +12901,7 @@
       <c r="U514" s="12"/>
       <c r="V514" s="12"/>
     </row>
-    <row r="515" spans="1:22">
+    <row r="515" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -12920,7 +12925,7 @@
       <c r="U515" s="12"/>
       <c r="V515" s="12"/>
     </row>
-    <row r="516" spans="1:22">
+    <row r="516" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -12944,7 +12949,7 @@
       <c r="U516" s="12"/>
       <c r="V516" s="12"/>
     </row>
-    <row r="517" spans="1:22">
+    <row r="517" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -12968,7 +12973,7 @@
       <c r="U517" s="12"/>
       <c r="V517" s="12"/>
     </row>
-    <row r="518" spans="1:22">
+    <row r="518" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -12992,7 +12997,7 @@
       <c r="U518" s="12"/>
       <c r="V518" s="12"/>
     </row>
-    <row r="519" spans="1:22">
+    <row r="519" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -13016,7 +13021,7 @@
       <c r="U519" s="12"/>
       <c r="V519" s="12"/>
     </row>
-    <row r="520" spans="1:22">
+    <row r="520" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -13040,7 +13045,7 @@
       <c r="U520" s="12"/>
       <c r="V520" s="12"/>
     </row>
-    <row r="521" spans="1:22">
+    <row r="521" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -13064,7 +13069,7 @@
       <c r="U521" s="12"/>
       <c r="V521" s="12"/>
     </row>
-    <row r="522" spans="1:22">
+    <row r="522" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -13088,7 +13093,7 @@
       <c r="U522" s="12"/>
       <c r="V522" s="12"/>
     </row>
-    <row r="523" spans="1:22">
+    <row r="523" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -13112,7 +13117,7 @@
       <c r="U523" s="12"/>
       <c r="V523" s="12"/>
     </row>
-    <row r="524" spans="1:22">
+    <row r="524" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -13136,7 +13141,7 @@
       <c r="U524" s="12"/>
       <c r="V524" s="12"/>
     </row>
-    <row r="525" spans="1:22">
+    <row r="525" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -13160,7 +13165,7 @@
       <c r="U525" s="12"/>
       <c r="V525" s="12"/>
     </row>
-    <row r="526" spans="1:22">
+    <row r="526" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -13184,7 +13189,7 @@
       <c r="U526" s="12"/>
       <c r="V526" s="12"/>
     </row>
-    <row r="527" spans="1:22">
+    <row r="527" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -13208,7 +13213,7 @@
       <c r="U527" s="12"/>
       <c r="V527" s="12"/>
     </row>
-    <row r="528" spans="1:22">
+    <row r="528" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -13232,7 +13237,7 @@
       <c r="U528" s="12"/>
       <c r="V528" s="12"/>
     </row>
-    <row r="529" spans="1:22">
+    <row r="529" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -13256,7 +13261,7 @@
       <c r="U529" s="12"/>
       <c r="V529" s="12"/>
     </row>
-    <row r="530" spans="1:22">
+    <row r="530" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -13280,7 +13285,7 @@
       <c r="U530" s="12"/>
       <c r="V530" s="12"/>
     </row>
-    <row r="531" spans="1:22">
+    <row r="531" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -13304,7 +13309,7 @@
       <c r="U531" s="12"/>
       <c r="V531" s="12"/>
     </row>
-    <row r="532" spans="1:22">
+    <row r="532" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -13328,7 +13333,7 @@
       <c r="U532" s="12"/>
       <c r="V532" s="12"/>
     </row>
-    <row r="533" spans="1:22">
+    <row r="533" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -13352,7 +13357,7 @@
       <c r="U533" s="12"/>
       <c r="V533" s="12"/>
     </row>
-    <row r="534" spans="1:22">
+    <row r="534" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -13376,7 +13381,7 @@
       <c r="U534" s="12"/>
       <c r="V534" s="12"/>
     </row>
-    <row r="535" spans="1:22">
+    <row r="535" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -13400,7 +13405,7 @@
       <c r="U535" s="12"/>
       <c r="V535" s="12"/>
     </row>
-    <row r="536" spans="1:22">
+    <row r="536" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -13424,7 +13429,7 @@
       <c r="U536" s="12"/>
       <c r="V536" s="12"/>
     </row>
-    <row r="537" spans="1:22">
+    <row r="537" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -13448,7 +13453,7 @@
       <c r="U537" s="12"/>
       <c r="V537" s="12"/>
     </row>
-    <row r="538" spans="1:22">
+    <row r="538" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -13472,7 +13477,7 @@
       <c r="U538" s="12"/>
       <c r="V538" s="12"/>
     </row>
-    <row r="539" spans="1:22">
+    <row r="539" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -13496,7 +13501,7 @@
       <c r="U539" s="12"/>
       <c r="V539" s="12"/>
     </row>
-    <row r="540" spans="1:22">
+    <row r="540" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -13520,7 +13525,7 @@
       <c r="U540" s="12"/>
       <c r="V540" s="12"/>
     </row>
-    <row r="541" spans="1:22">
+    <row r="541" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -13544,7 +13549,7 @@
       <c r="U541" s="12"/>
       <c r="V541" s="12"/>
     </row>
-    <row r="542" spans="1:22">
+    <row r="542" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -13568,7 +13573,7 @@
       <c r="U542" s="12"/>
       <c r="V542" s="12"/>
     </row>
-    <row r="543" spans="1:22">
+    <row r="543" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -13592,7 +13597,7 @@
       <c r="U543" s="12"/>
       <c r="V543" s="12"/>
     </row>
-    <row r="544" spans="1:22">
+    <row r="544" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -13616,7 +13621,7 @@
       <c r="U544" s="12"/>
       <c r="V544" s="12"/>
     </row>
-    <row r="545" spans="1:22">
+    <row r="545" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -13640,7 +13645,7 @@
       <c r="U545" s="12"/>
       <c r="V545" s="12"/>
     </row>
-    <row r="546" spans="1:22">
+    <row r="546" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -13664,7 +13669,7 @@
       <c r="U546" s="12"/>
       <c r="V546" s="12"/>
     </row>
-    <row r="547" spans="1:22">
+    <row r="547" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -13688,7 +13693,7 @@
       <c r="U547" s="12"/>
       <c r="V547" s="12"/>
     </row>
-    <row r="548" spans="1:22">
+    <row r="548" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -13712,7 +13717,7 @@
       <c r="U548" s="12"/>
       <c r="V548" s="12"/>
     </row>
-    <row r="549" spans="1:22">
+    <row r="549" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -13736,7 +13741,7 @@
       <c r="U549" s="12"/>
       <c r="V549" s="12"/>
     </row>
-    <row r="550" spans="1:22">
+    <row r="550" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -13760,7 +13765,7 @@
       <c r="U550" s="12"/>
       <c r="V550" s="12"/>
     </row>
-    <row r="551" spans="1:22">
+    <row r="551" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -13784,7 +13789,7 @@
       <c r="U551" s="12"/>
       <c r="V551" s="12"/>
     </row>
-    <row r="552" spans="1:22">
+    <row r="552" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -13808,7 +13813,7 @@
       <c r="U552" s="12"/>
       <c r="V552" s="12"/>
     </row>
-    <row r="553" spans="1:22">
+    <row r="553" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -13832,7 +13837,7 @@
       <c r="U553" s="12"/>
       <c r="V553" s="12"/>
     </row>
-    <row r="554" spans="1:22">
+    <row r="554" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -13856,7 +13861,7 @@
       <c r="U554" s="12"/>
       <c r="V554" s="12"/>
     </row>
-    <row r="555" spans="1:22">
+    <row r="555" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -13880,7 +13885,7 @@
       <c r="U555" s="12"/>
       <c r="V555" s="12"/>
     </row>
-    <row r="556" spans="1:22">
+    <row r="556" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -13904,7 +13909,7 @@
       <c r="U556" s="12"/>
       <c r="V556" s="12"/>
     </row>
-    <row r="557" spans="1:22">
+    <row r="557" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -13928,7 +13933,7 @@
       <c r="U557" s="12"/>
       <c r="V557" s="12"/>
     </row>
-    <row r="558" spans="1:22">
+    <row r="558" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -13952,7 +13957,7 @@
       <c r="U558" s="12"/>
       <c r="V558" s="12"/>
     </row>
-    <row r="559" spans="1:22">
+    <row r="559" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -13976,7 +13981,7 @@
       <c r="U559" s="12"/>
       <c r="V559" s="12"/>
     </row>
-    <row r="560" spans="1:22">
+    <row r="560" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -14000,7 +14005,7 @@
       <c r="U560" s="12"/>
       <c r="V560" s="12"/>
     </row>
-    <row r="561" spans="1:22">
+    <row r="561" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -14024,7 +14029,7 @@
       <c r="U561" s="12"/>
       <c r="V561" s="12"/>
     </row>
-    <row r="562" spans="1:22">
+    <row r="562" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -14048,7 +14053,7 @@
       <c r="U562" s="12"/>
       <c r="V562" s="12"/>
     </row>
-    <row r="563" spans="1:22">
+    <row r="563" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -14072,7 +14077,7 @@
       <c r="U563" s="12"/>
       <c r="V563" s="12"/>
     </row>
-    <row r="564" spans="1:22">
+    <row r="564" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -14096,7 +14101,7 @@
       <c r="U564" s="12"/>
       <c r="V564" s="12"/>
     </row>
-    <row r="565" spans="1:22">
+    <row r="565" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -14120,7 +14125,7 @@
       <c r="U565" s="12"/>
       <c r="V565" s="12"/>
     </row>
-    <row r="566" spans="1:22">
+    <row r="566" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -14135,7 +14140,7 @@
       <c r="L566" s="4"/>
       <c r="M566" s="12"/>
     </row>
-    <row r="567" spans="1:22">
+    <row r="567" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -14150,7 +14155,7 @@
       <c r="L567" s="4"/>
       <c r="M567" s="12"/>
     </row>
-    <row r="568" spans="1:22">
+    <row r="568" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -14165,7 +14170,7 @@
       <c r="L568" s="4"/>
       <c r="M568" s="12"/>
     </row>
-    <row r="569" spans="1:22">
+    <row r="569" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -14180,7 +14185,7 @@
       <c r="L569" s="4"/>
       <c r="M569" s="12"/>
     </row>
-    <row r="570" spans="1:22">
+    <row r="570" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -14195,7 +14200,7 @@
       <c r="L570" s="4"/>
       <c r="M570" s="12"/>
     </row>
-    <row r="571" spans="1:22">
+    <row r="571" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -14210,7 +14215,7 @@
       <c r="L571" s="4"/>
       <c r="M571" s="12"/>
     </row>
-    <row r="572" spans="1:22">
+    <row r="572" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -14225,7 +14230,7 @@
       <c r="L572" s="4"/>
       <c r="M572" s="12"/>
     </row>
-    <row r="573" spans="1:22">
+    <row r="573" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -14240,7 +14245,7 @@
       <c r="L573" s="4"/>
       <c r="M573" s="12"/>
     </row>
-    <row r="574" spans="1:22">
+    <row r="574" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -14255,7 +14260,7 @@
       <c r="L574" s="4"/>
       <c r="M574" s="12"/>
     </row>
-    <row r="575" spans="1:22">
+    <row r="575" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -14270,7 +14275,7 @@
       <c r="L575" s="4"/>
       <c r="M575" s="12"/>
     </row>
-    <row r="576" spans="1:22">
+    <row r="576" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -14285,7 +14290,7 @@
       <c r="L576" s="4"/>
       <c r="M576" s="12"/>
     </row>
-    <row r="577" spans="1:13">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -14300,7 +14305,7 @@
       <c r="L577" s="4"/>
       <c r="M577" s="12"/>
     </row>
-    <row r="578" spans="1:13">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -14315,7 +14320,7 @@
       <c r="L578" s="4"/>
       <c r="M578" s="12"/>
     </row>
-    <row r="579" spans="1:13">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -14330,7 +14335,7 @@
       <c r="L579" s="4"/>
       <c r="M579" s="12"/>
     </row>
-    <row r="580" spans="1:13">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -14345,7 +14350,7 @@
       <c r="L580" s="4"/>
       <c r="M580" s="12"/>
     </row>
-    <row r="581" spans="1:13">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -14360,7 +14365,7 @@
       <c r="L581" s="4"/>
       <c r="M581" s="12"/>
     </row>
-    <row r="582" spans="1:13">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -14375,7 +14380,7 @@
       <c r="L582" s="4"/>
       <c r="M582" s="12"/>
     </row>
-    <row r="583" spans="1:13">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -14390,7 +14395,7 @@
       <c r="L583" s="4"/>
       <c r="M583" s="12"/>
     </row>
-    <row r="584" spans="1:13">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -14405,7 +14410,7 @@
       <c r="L584" s="4"/>
       <c r="M584" s="12"/>
     </row>
-    <row r="585" spans="1:13">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -14420,7 +14425,7 @@
       <c r="L585" s="4"/>
       <c r="M585" s="12"/>
     </row>
-    <row r="586" spans="1:13">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -14435,7 +14440,7 @@
       <c r="L586" s="4"/>
       <c r="M586" s="12"/>
     </row>
-    <row r="587" spans="1:13">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -14450,7 +14455,7 @@
       <c r="L587" s="4"/>
       <c r="M587" s="12"/>
     </row>
-    <row r="588" spans="1:13">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -14465,7 +14470,7 @@
       <c r="L588" s="4"/>
       <c r="M588" s="12"/>
     </row>
-    <row r="589" spans="1:13">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -14480,7 +14485,7 @@
       <c r="L589" s="4"/>
       <c r="M589" s="12"/>
     </row>
-    <row r="590" spans="1:13">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -14495,7 +14500,7 @@
       <c r="L590" s="4"/>
       <c r="M590" s="12"/>
     </row>
-    <row r="591" spans="1:13">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -14510,7 +14515,7 @@
       <c r="L591" s="4"/>
       <c r="M591" s="12"/>
     </row>
-    <row r="592" spans="1:13">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -14525,7 +14530,7 @@
       <c r="L592" s="4"/>
       <c r="M592" s="12"/>
     </row>
-    <row r="593" spans="1:13">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -14540,7 +14545,7 @@
       <c r="L593" s="4"/>
       <c r="M593" s="12"/>
     </row>
-    <row r="594" spans="1:13">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -14555,7 +14560,7 @@
       <c r="L594" s="4"/>
       <c r="M594" s="12"/>
     </row>
-    <row r="595" spans="1:13">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -14570,7 +14575,7 @@
       <c r="L595" s="4"/>
       <c r="M595" s="12"/>
     </row>
-    <row r="596" spans="1:13">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -14585,7 +14590,7 @@
       <c r="L596" s="4"/>
       <c r="M596" s="12"/>
     </row>
-    <row r="597" spans="1:13">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -14600,7 +14605,7 @@
       <c r="L597" s="4"/>
       <c r="M597" s="12"/>
     </row>
-    <row r="598" spans="1:13">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -14615,7 +14620,7 @@
       <c r="L598" s="4"/>
       <c r="M598" s="12"/>
     </row>
-    <row r="599" spans="1:13">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -14630,7 +14635,7 @@
       <c r="L599" s="4"/>
       <c r="M599" s="12"/>
     </row>
-    <row r="600" spans="1:13">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -14645,7 +14650,7 @@
       <c r="L600" s="4"/>
       <c r="M600" s="12"/>
     </row>
-    <row r="601" spans="1:13">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -14660,7 +14665,7 @@
       <c r="L601" s="4"/>
       <c r="M601" s="12"/>
     </row>
-    <row r="602" spans="1:13">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -14675,7 +14680,7 @@
       <c r="L602" s="4"/>
       <c r="M602" s="12"/>
     </row>
-    <row r="603" spans="1:13">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -14690,7 +14695,7 @@
       <c r="L603" s="4"/>
       <c r="M603" s="12"/>
     </row>
-    <row r="604" spans="1:13">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -14705,7 +14710,7 @@
       <c r="L604" s="4"/>
       <c r="M604" s="12"/>
     </row>
-    <row r="605" spans="1:13">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -14720,7 +14725,7 @@
       <c r="L605" s="4"/>
       <c r="M605" s="12"/>
     </row>
-    <row r="606" spans="1:13">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -14735,7 +14740,7 @@
       <c r="L606" s="4"/>
       <c r="M606" s="12"/>
     </row>
-    <row r="607" spans="1:13">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -14750,7 +14755,7 @@
       <c r="L607" s="4"/>
       <c r="M607" s="12"/>
     </row>
-    <row r="608" spans="1:13">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -14765,7 +14770,7 @@
       <c r="L608" s="4"/>
       <c r="M608" s="12"/>
     </row>
-    <row r="609" spans="1:13">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -14780,7 +14785,7 @@
       <c r="L609" s="4"/>
       <c r="M609" s="12"/>
     </row>
-    <row r="610" spans="1:13">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -14795,1306 +14800,1306 @@
       <c r="L610" s="4"/>
       <c r="M610" s="12"/>
     </row>
-    <row r="611" spans="1:13">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M611" s="12"/>
     </row>
-    <row r="612" spans="1:13">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M612" s="12"/>
     </row>
-    <row r="613" spans="1:13">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M613" s="12"/>
     </row>
-    <row r="614" spans="1:13">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M614" s="12"/>
     </row>
-    <row r="615" spans="1:13">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M615" s="12"/>
     </row>
-    <row r="616" spans="1:13">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M616" s="12"/>
     </row>
-    <row r="617" spans="1:13">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M617" s="12"/>
     </row>
-    <row r="618" spans="1:13">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M618" s="12"/>
     </row>
-    <row r="619" spans="1:13">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M619" s="12"/>
     </row>
-    <row r="620" spans="1:13">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M620" s="12"/>
     </row>
-    <row r="621" spans="1:13">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M621" s="12"/>
     </row>
-    <row r="622" spans="1:13">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M622" s="12"/>
     </row>
-    <row r="623" spans="1:13">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M623" s="12"/>
     </row>
-    <row r="624" spans="1:13">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M624" s="12"/>
     </row>
-    <row r="625" spans="13:13">
+    <row r="625" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M625" s="12"/>
     </row>
-    <row r="626" spans="13:13">
+    <row r="626" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M626" s="12"/>
     </row>
-    <row r="627" spans="13:13">
+    <row r="627" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M627" s="12"/>
     </row>
-    <row r="628" spans="13:13">
+    <row r="628" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M628" s="12"/>
     </row>
-    <row r="629" spans="13:13">
+    <row r="629" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M629" s="12"/>
     </row>
-    <row r="630" spans="13:13">
+    <row r="630" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M630" s="12"/>
     </row>
-    <row r="631" spans="13:13">
+    <row r="631" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M631" s="12"/>
     </row>
-    <row r="632" spans="13:13">
+    <row r="632" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M632" s="12"/>
     </row>
-    <row r="633" spans="13:13">
+    <row r="633" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M633" s="12"/>
     </row>
-    <row r="634" spans="13:13">
+    <row r="634" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M634" s="12"/>
     </row>
-    <row r="635" spans="13:13">
+    <row r="635" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M635" s="12"/>
     </row>
-    <row r="636" spans="13:13">
+    <row r="636" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M636" s="12"/>
     </row>
-    <row r="637" spans="13:13">
+    <row r="637" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M637" s="12"/>
     </row>
-    <row r="638" spans="13:13">
+    <row r="638" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M638" s="12"/>
     </row>
-    <row r="639" spans="13:13">
+    <row r="639" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M639" s="12"/>
     </row>
-    <row r="640" spans="13:13">
+    <row r="640" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M640" s="12"/>
     </row>
-    <row r="641" spans="13:13">
+    <row r="641" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M641" s="12"/>
     </row>
-    <row r="642" spans="13:13">
+    <row r="642" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M642" s="12"/>
     </row>
-    <row r="643" spans="13:13">
+    <row r="643" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M643" s="12"/>
     </row>
-    <row r="644" spans="13:13">
+    <row r="644" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M644" s="12"/>
     </row>
-    <row r="645" spans="13:13">
+    <row r="645" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M645" s="12"/>
     </row>
-    <row r="646" spans="13:13">
+    <row r="646" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M646" s="12"/>
     </row>
-    <row r="647" spans="13:13">
+    <row r="647" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M647" s="12"/>
     </row>
-    <row r="648" spans="13:13">
+    <row r="648" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M648" s="12"/>
     </row>
-    <row r="649" spans="13:13">
+    <row r="649" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M649" s="12"/>
     </row>
-    <row r="650" spans="13:13">
+    <row r="650" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M650" s="12"/>
     </row>
-    <row r="651" spans="13:13">
+    <row r="651" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M651" s="12"/>
     </row>
-    <row r="652" spans="13:13">
+    <row r="652" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M652" s="12"/>
     </row>
-    <row r="653" spans="13:13">
+    <row r="653" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M653" s="12"/>
     </row>
-    <row r="654" spans="13:13">
+    <row r="654" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M654" s="12"/>
     </row>
-    <row r="655" spans="13:13">
+    <row r="655" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M655" s="12"/>
     </row>
-    <row r="656" spans="13:13">
+    <row r="656" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M656" s="12"/>
     </row>
-    <row r="657" spans="13:13">
+    <row r="657" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M657" s="12"/>
     </row>
-    <row r="658" spans="13:13">
+    <row r="658" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M658" s="12"/>
     </row>
-    <row r="659" spans="13:13">
+    <row r="659" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M659" s="12"/>
     </row>
-    <row r="660" spans="13:13">
+    <row r="660" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M660" s="12"/>
     </row>
-    <row r="661" spans="13:13">
+    <row r="661" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M661" s="12"/>
     </row>
-    <row r="662" spans="13:13">
+    <row r="662" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M662" s="12"/>
     </row>
-    <row r="663" spans="13:13">
+    <row r="663" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M663" s="12"/>
     </row>
-    <row r="664" spans="13:13">
+    <row r="664" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M664" s="12"/>
     </row>
-    <row r="665" spans="13:13">
+    <row r="665" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M665" s="12"/>
     </row>
-    <row r="666" spans="13:13">
+    <row r="666" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M666" s="12"/>
     </row>
-    <row r="667" spans="13:13">
+    <row r="667" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M667" s="12"/>
     </row>
-    <row r="668" spans="13:13">
+    <row r="668" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M668" s="12"/>
     </row>
-    <row r="669" spans="13:13">
+    <row r="669" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M669" s="12"/>
     </row>
-    <row r="670" spans="13:13">
+    <row r="670" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M670" s="12"/>
     </row>
-    <row r="671" spans="13:13">
+    <row r="671" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M671" s="12"/>
     </row>
-    <row r="672" spans="13:13">
+    <row r="672" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M672" s="12"/>
     </row>
-    <row r="673" spans="13:13">
+    <row r="673" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M673" s="12"/>
     </row>
-    <row r="674" spans="13:13">
+    <row r="674" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M674" s="12"/>
     </row>
-    <row r="675" spans="13:13">
+    <row r="675" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M675" s="12"/>
     </row>
-    <row r="676" spans="13:13">
+    <row r="676" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M676" s="12"/>
     </row>
-    <row r="677" spans="13:13">
+    <row r="677" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M677" s="12"/>
     </row>
-    <row r="678" spans="13:13">
+    <row r="678" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M678" s="12"/>
     </row>
-    <row r="679" spans="13:13">
+    <row r="679" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M679" s="12"/>
     </row>
-    <row r="680" spans="13:13">
+    <row r="680" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M680" s="12"/>
     </row>
-    <row r="681" spans="13:13">
+    <row r="681" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M681" s="12"/>
     </row>
-    <row r="682" spans="13:13">
+    <row r="682" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M682" s="12"/>
     </row>
-    <row r="683" spans="13:13">
+    <row r="683" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M683" s="12"/>
     </row>
-    <row r="684" spans="13:13">
+    <row r="684" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M684" s="12"/>
     </row>
-    <row r="685" spans="13:13">
+    <row r="685" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M685" s="12"/>
     </row>
-    <row r="686" spans="13:13">
+    <row r="686" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M686" s="12"/>
     </row>
-    <row r="687" spans="13:13">
+    <row r="687" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M687" s="12"/>
     </row>
-    <row r="688" spans="13:13">
+    <row r="688" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M688" s="12"/>
     </row>
-    <row r="689" spans="13:13">
+    <row r="689" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M689" s="12"/>
     </row>
-    <row r="690" spans="13:13">
+    <row r="690" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M690" s="12"/>
     </row>
-    <row r="691" spans="13:13">
+    <row r="691" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M691" s="12"/>
     </row>
-    <row r="692" spans="13:13">
+    <row r="692" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M692" s="12"/>
     </row>
-    <row r="693" spans="13:13">
+    <row r="693" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M693" s="12"/>
     </row>
-    <row r="694" spans="13:13">
+    <row r="694" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M694" s="12"/>
     </row>
-    <row r="695" spans="13:13">
+    <row r="695" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M695" s="12"/>
     </row>
-    <row r="696" spans="13:13">
+    <row r="696" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M696" s="12"/>
     </row>
-    <row r="697" spans="13:13">
+    <row r="697" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M697" s="12"/>
     </row>
-    <row r="698" spans="13:13">
+    <row r="698" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M698" s="12"/>
     </row>
-    <row r="699" spans="13:13">
+    <row r="699" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M699" s="12"/>
     </row>
-    <row r="700" spans="13:13">
+    <row r="700" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M700" s="12"/>
     </row>
-    <row r="701" spans="13:13">
+    <row r="701" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M701" s="12"/>
     </row>
-    <row r="702" spans="13:13">
+    <row r="702" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M702" s="12"/>
     </row>
-    <row r="703" spans="13:13">
+    <row r="703" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M703" s="12"/>
     </row>
-    <row r="704" spans="13:13">
+    <row r="704" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M704" s="12"/>
     </row>
-    <row r="705" spans="13:13">
+    <row r="705" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M705" s="12"/>
     </row>
-    <row r="706" spans="13:13">
+    <row r="706" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M706" s="12"/>
     </row>
-    <row r="707" spans="13:13">
+    <row r="707" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M707" s="12"/>
     </row>
-    <row r="708" spans="13:13">
+    <row r="708" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M708" s="12"/>
     </row>
-    <row r="709" spans="13:13">
+    <row r="709" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M709" s="12"/>
     </row>
-    <row r="710" spans="13:13">
+    <row r="710" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M710" s="12"/>
     </row>
-    <row r="711" spans="13:13">
+    <row r="711" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M711" s="12"/>
     </row>
-    <row r="712" spans="13:13">
+    <row r="712" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M712" s="12"/>
     </row>
-    <row r="713" spans="13:13">
+    <row r="713" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M713" s="12"/>
     </row>
-    <row r="714" spans="13:13">
+    <row r="714" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M714" s="12"/>
     </row>
-    <row r="715" spans="13:13">
+    <row r="715" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M715" s="12"/>
     </row>
-    <row r="716" spans="13:13">
+    <row r="716" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M716" s="12"/>
     </row>
-    <row r="717" spans="13:13">
+    <row r="717" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M717" s="12"/>
     </row>
-    <row r="718" spans="13:13">
+    <row r="718" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M718" s="12"/>
     </row>
-    <row r="719" spans="13:13">
+    <row r="719" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M719" s="12"/>
     </row>
-    <row r="720" spans="13:13">
+    <row r="720" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M720" s="12"/>
     </row>
-    <row r="721" spans="13:13">
+    <row r="721" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M721" s="12"/>
     </row>
-    <row r="722" spans="13:13">
+    <row r="722" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M722" s="12"/>
     </row>
-    <row r="723" spans="13:13">
+    <row r="723" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M723" s="12"/>
     </row>
-    <row r="724" spans="13:13">
+    <row r="724" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M724" s="12"/>
     </row>
-    <row r="725" spans="13:13">
+    <row r="725" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M725" s="12"/>
     </row>
-    <row r="726" spans="13:13">
+    <row r="726" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M726" s="12"/>
     </row>
-    <row r="727" spans="13:13">
+    <row r="727" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M727" s="12"/>
     </row>
-    <row r="728" spans="13:13">
+    <row r="728" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M728" s="12"/>
     </row>
-    <row r="729" spans="13:13">
+    <row r="729" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M729" s="12"/>
     </row>
-    <row r="730" spans="13:13">
+    <row r="730" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M730" s="12"/>
     </row>
-    <row r="731" spans="13:13">
+    <row r="731" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M731" s="12"/>
     </row>
-    <row r="732" spans="13:13">
+    <row r="732" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M732" s="12"/>
     </row>
-    <row r="733" spans="13:13">
+    <row r="733" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M733" s="12"/>
     </row>
-    <row r="734" spans="13:13">
+    <row r="734" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M734" s="12"/>
     </row>
-    <row r="735" spans="13:13">
+    <row r="735" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M735" s="12"/>
     </row>
-    <row r="736" spans="13:13">
+    <row r="736" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M736" s="12"/>
     </row>
-    <row r="737" spans="13:13">
+    <row r="737" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M737" s="12"/>
     </row>
-    <row r="738" spans="13:13">
+    <row r="738" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M738" s="12"/>
     </row>
-    <row r="739" spans="13:13">
+    <row r="739" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M739" s="12"/>
     </row>
-    <row r="740" spans="13:13">
+    <row r="740" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M740" s="12"/>
     </row>
-    <row r="741" spans="13:13">
+    <row r="741" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M741" s="12"/>
     </row>
-    <row r="742" spans="13:13">
+    <row r="742" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M742" s="12"/>
     </row>
-    <row r="743" spans="13:13">
+    <row r="743" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M743" s="12"/>
     </row>
-    <row r="744" spans="13:13">
+    <row r="744" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M744" s="12"/>
     </row>
-    <row r="745" spans="13:13">
+    <row r="745" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M745" s="12"/>
     </row>
-    <row r="746" spans="13:13">
+    <row r="746" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M746" s="12"/>
     </row>
-    <row r="747" spans="13:13">
+    <row r="747" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M747" s="12"/>
     </row>
-    <row r="748" spans="13:13">
+    <row r="748" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M748" s="12"/>
     </row>
-    <row r="749" spans="13:13">
+    <row r="749" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M749" s="12"/>
     </row>
-    <row r="750" spans="13:13">
+    <row r="750" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M750" s="12"/>
     </row>
-    <row r="751" spans="13:13">
+    <row r="751" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M751" s="12"/>
     </row>
-    <row r="752" spans="13:13">
+    <row r="752" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M752" s="12"/>
     </row>
-    <row r="753" spans="13:13">
+    <row r="753" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M753" s="12"/>
     </row>
-    <row r="754" spans="13:13">
+    <row r="754" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M754" s="12"/>
     </row>
-    <row r="755" spans="13:13">
+    <row r="755" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M755" s="12"/>
     </row>
-    <row r="756" spans="13:13">
+    <row r="756" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M756" s="12"/>
     </row>
-    <row r="757" spans="13:13">
+    <row r="757" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M757" s="12"/>
     </row>
-    <row r="758" spans="13:13">
+    <row r="758" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M758" s="12"/>
     </row>
-    <row r="759" spans="13:13">
+    <row r="759" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M759" s="12"/>
     </row>
-    <row r="760" spans="13:13">
+    <row r="760" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M760" s="12"/>
     </row>
-    <row r="761" spans="13:13">
+    <row r="761" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M761" s="12"/>
     </row>
-    <row r="762" spans="13:13">
+    <row r="762" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M762" s="12"/>
     </row>
-    <row r="763" spans="13:13">
+    <row r="763" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M763" s="12"/>
     </row>
-    <row r="764" spans="13:13">
+    <row r="764" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M764" s="12"/>
     </row>
-    <row r="765" spans="13:13">
+    <row r="765" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M765" s="12"/>
     </row>
-    <row r="766" spans="13:13">
+    <row r="766" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M766" s="12"/>
     </row>
-    <row r="767" spans="13:13">
+    <row r="767" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M767" s="12"/>
     </row>
-    <row r="768" spans="13:13">
+    <row r="768" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M768" s="12"/>
     </row>
-    <row r="769" spans="13:13">
+    <row r="769" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M769" s="12"/>
     </row>
-    <row r="770" spans="13:13">
+    <row r="770" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M770" s="12"/>
     </row>
-    <row r="771" spans="13:13">
+    <row r="771" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M771" s="12"/>
     </row>
-    <row r="772" spans="13:13">
+    <row r="772" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M772" s="12"/>
     </row>
-    <row r="773" spans="13:13">
+    <row r="773" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M773" s="12"/>
     </row>
-    <row r="774" spans="13:13">
+    <row r="774" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M774" s="12"/>
     </row>
-    <row r="775" spans="13:13">
+    <row r="775" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M775" s="12"/>
     </row>
-    <row r="776" spans="13:13">
+    <row r="776" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M776" s="12"/>
     </row>
-    <row r="777" spans="13:13">
+    <row r="777" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M777" s="12"/>
     </row>
-    <row r="778" spans="13:13">
+    <row r="778" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M778" s="12"/>
     </row>
-    <row r="779" spans="13:13">
+    <row r="779" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M779" s="12"/>
     </row>
-    <row r="780" spans="13:13">
+    <row r="780" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M780" s="12"/>
     </row>
-    <row r="781" spans="13:13">
+    <row r="781" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M781" s="12"/>
     </row>
-    <row r="782" spans="13:13">
+    <row r="782" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M782" s="12"/>
     </row>
-    <row r="783" spans="13:13">
+    <row r="783" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M783" s="12"/>
     </row>
-    <row r="784" spans="13:13">
+    <row r="784" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M784" s="12"/>
     </row>
-    <row r="785" spans="13:13">
+    <row r="785" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M785" s="12"/>
     </row>
-    <row r="786" spans="13:13">
+    <row r="786" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M786" s="12"/>
     </row>
-    <row r="787" spans="13:13">
+    <row r="787" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M787" s="12"/>
     </row>
-    <row r="788" spans="13:13">
+    <row r="788" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M788" s="12"/>
     </row>
-    <row r="789" spans="13:13">
+    <row r="789" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M789" s="12"/>
     </row>
-    <row r="790" spans="13:13">
+    <row r="790" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M790" s="12"/>
     </row>
-    <row r="791" spans="13:13">
+    <row r="791" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M791" s="12"/>
     </row>
-    <row r="792" spans="13:13">
+    <row r="792" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M792" s="12"/>
     </row>
-    <row r="793" spans="13:13">
+    <row r="793" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M793" s="12"/>
     </row>
-    <row r="794" spans="13:13">
+    <row r="794" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M794" s="12"/>
     </row>
-    <row r="795" spans="13:13">
+    <row r="795" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M795" s="12"/>
     </row>
-    <row r="796" spans="13:13">
+    <row r="796" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M796" s="12"/>
     </row>
-    <row r="797" spans="13:13">
+    <row r="797" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M797" s="12"/>
     </row>
-    <row r="798" spans="13:13">
+    <row r="798" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M798" s="12"/>
     </row>
-    <row r="799" spans="13:13">
+    <row r="799" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M799" s="12"/>
     </row>
-    <row r="800" spans="13:13">
+    <row r="800" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M800" s="12"/>
     </row>
-    <row r="801" spans="13:13">
+    <row r="801" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M801" s="12"/>
     </row>
-    <row r="802" spans="13:13">
+    <row r="802" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M802" s="12"/>
     </row>
-    <row r="803" spans="13:13">
+    <row r="803" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M803" s="12"/>
     </row>
-    <row r="804" spans="13:13">
+    <row r="804" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M804" s="12"/>
     </row>
-    <row r="805" spans="13:13">
+    <row r="805" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M805" s="12"/>
     </row>
-    <row r="806" spans="13:13">
+    <row r="806" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M806" s="12"/>
     </row>
-    <row r="807" spans="13:13">
+    <row r="807" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M807" s="12"/>
     </row>
-    <row r="808" spans="13:13">
+    <row r="808" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M808" s="12"/>
     </row>
-    <row r="809" spans="13:13">
+    <row r="809" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M809" s="12"/>
     </row>
-    <row r="810" spans="13:13">
+    <row r="810" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M810" s="12"/>
     </row>
-    <row r="811" spans="13:13">
+    <row r="811" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M811" s="12"/>
     </row>
-    <row r="812" spans="13:13">
+    <row r="812" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M812" s="12"/>
     </row>
-    <row r="813" spans="13:13">
+    <row r="813" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M813" s="12"/>
     </row>
-    <row r="814" spans="13:13">
+    <row r="814" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M814" s="12"/>
     </row>
-    <row r="815" spans="13:13">
+    <row r="815" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M815" s="12"/>
     </row>
-    <row r="816" spans="13:13">
+    <row r="816" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M816" s="12"/>
     </row>
-    <row r="817" spans="13:13">
+    <row r="817" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M817" s="12"/>
     </row>
-    <row r="818" spans="13:13">
+    <row r="818" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M818" s="12"/>
     </row>
-    <row r="819" spans="13:13">
+    <row r="819" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M819" s="12"/>
     </row>
-    <row r="820" spans="13:13">
+    <row r="820" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M820" s="12"/>
     </row>
-    <row r="821" spans="13:13">
+    <row r="821" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M821" s="12"/>
     </row>
-    <row r="822" spans="13:13">
+    <row r="822" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M822" s="12"/>
     </row>
-    <row r="823" spans="13:13">
+    <row r="823" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M823" s="12"/>
     </row>
-    <row r="824" spans="13:13">
+    <row r="824" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M824" s="12"/>
     </row>
-    <row r="825" spans="13:13">
+    <row r="825" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M825" s="12"/>
     </row>
-    <row r="826" spans="13:13">
+    <row r="826" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M826" s="12"/>
     </row>
-    <row r="827" spans="13:13">
+    <row r="827" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M827" s="12"/>
     </row>
-    <row r="828" spans="13:13">
+    <row r="828" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M828" s="12"/>
     </row>
-    <row r="829" spans="13:13">
+    <row r="829" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M829" s="12"/>
     </row>
-    <row r="830" spans="13:13">
+    <row r="830" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M830" s="12"/>
     </row>
-    <row r="831" spans="13:13">
+    <row r="831" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M831" s="12"/>
     </row>
-    <row r="832" spans="13:13">
+    <row r="832" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M832" s="12"/>
     </row>
-    <row r="833" spans="13:13">
+    <row r="833" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M833" s="12"/>
     </row>
-    <row r="834" spans="13:13">
+    <row r="834" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M834" s="12"/>
     </row>
-    <row r="835" spans="13:13">
+    <row r="835" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M835" s="12"/>
     </row>
-    <row r="836" spans="13:13">
+    <row r="836" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M836" s="12"/>
     </row>
-    <row r="837" spans="13:13">
+    <row r="837" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M837" s="12"/>
     </row>
-    <row r="838" spans="13:13">
+    <row r="838" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M838" s="12"/>
     </row>
-    <row r="839" spans="13:13">
+    <row r="839" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M839" s="12"/>
     </row>
-    <row r="840" spans="13:13">
+    <row r="840" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M840" s="12"/>
     </row>
-    <row r="841" spans="13:13">
+    <row r="841" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M841" s="12"/>
     </row>
-    <row r="842" spans="13:13">
+    <row r="842" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M842" s="12"/>
     </row>
-    <row r="843" spans="13:13">
+    <row r="843" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M843" s="12"/>
     </row>
-    <row r="844" spans="13:13">
+    <row r="844" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M844" s="12"/>
     </row>
-    <row r="845" spans="13:13">
+    <row r="845" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M845" s="12"/>
     </row>
-    <row r="846" spans="13:13">
+    <row r="846" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M846" s="12"/>
     </row>
-    <row r="847" spans="13:13">
+    <row r="847" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M847" s="12"/>
     </row>
-    <row r="848" spans="13:13">
+    <row r="848" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M848" s="12"/>
     </row>
-    <row r="849" spans="13:13">
+    <row r="849" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M849" s="12"/>
     </row>
-    <row r="850" spans="13:13">
+    <row r="850" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M850" s="12"/>
     </row>
-    <row r="851" spans="13:13">
+    <row r="851" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M851" s="12"/>
     </row>
-    <row r="852" spans="13:13">
+    <row r="852" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M852" s="12"/>
     </row>
-    <row r="853" spans="13:13">
+    <row r="853" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M853" s="12"/>
     </row>
-    <row r="854" spans="13:13">
+    <row r="854" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M854" s="12"/>
     </row>
-    <row r="855" spans="13:13">
+    <row r="855" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M855" s="12"/>
     </row>
-    <row r="856" spans="13:13">
+    <row r="856" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M856" s="12"/>
     </row>
-    <row r="857" spans="13:13">
+    <row r="857" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M857" s="12"/>
     </row>
-    <row r="858" spans="13:13">
+    <row r="858" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M858" s="12"/>
     </row>
-    <row r="859" spans="13:13">
+    <row r="859" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M859" s="12"/>
     </row>
-    <row r="860" spans="13:13">
+    <row r="860" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M860" s="12"/>
     </row>
-    <row r="861" spans="13:13">
+    <row r="861" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M861" s="12"/>
     </row>
-    <row r="862" spans="13:13">
+    <row r="862" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M862" s="12"/>
     </row>
-    <row r="863" spans="13:13">
+    <row r="863" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M863" s="12"/>
     </row>
-    <row r="864" spans="13:13">
+    <row r="864" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M864" s="12"/>
     </row>
-    <row r="865" spans="13:13">
+    <row r="865" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M865" s="12"/>
     </row>
-    <row r="866" spans="13:13">
+    <row r="866" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M866" s="12"/>
     </row>
-    <row r="867" spans="13:13">
+    <row r="867" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M867" s="12"/>
     </row>
-    <row r="868" spans="13:13">
+    <row r="868" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M868" s="12"/>
     </row>
-    <row r="869" spans="13:13">
+    <row r="869" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M869" s="12"/>
     </row>
-    <row r="870" spans="13:13">
+    <row r="870" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M870" s="12"/>
     </row>
-    <row r="871" spans="13:13">
+    <row r="871" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M871" s="12"/>
     </row>
-    <row r="872" spans="13:13">
+    <row r="872" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M872" s="12"/>
     </row>
-    <row r="873" spans="13:13">
+    <row r="873" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M873" s="12"/>
     </row>
-    <row r="874" spans="13:13">
+    <row r="874" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M874" s="12"/>
     </row>
-    <row r="875" spans="13:13">
+    <row r="875" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M875" s="12"/>
     </row>
-    <row r="876" spans="13:13">
+    <row r="876" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M876" s="12"/>
     </row>
-    <row r="877" spans="13:13">
+    <row r="877" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M877" s="12"/>
     </row>
-    <row r="878" spans="13:13">
+    <row r="878" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M878" s="12"/>
     </row>
-    <row r="879" spans="13:13">
+    <row r="879" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M879" s="12"/>
     </row>
-    <row r="880" spans="13:13">
+    <row r="880" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M880" s="12"/>
     </row>
-    <row r="881" spans="13:13">
+    <row r="881" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M881" s="12"/>
     </row>
-    <row r="882" spans="13:13">
+    <row r="882" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M882" s="12"/>
     </row>
-    <row r="883" spans="13:13">
+    <row r="883" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M883" s="12"/>
     </row>
-    <row r="884" spans="13:13">
+    <row r="884" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M884" s="12"/>
     </row>
-    <row r="885" spans="13:13">
+    <row r="885" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M885" s="12"/>
     </row>
-    <row r="886" spans="13:13">
+    <row r="886" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M886" s="12"/>
     </row>
-    <row r="887" spans="13:13">
+    <row r="887" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M887" s="12"/>
     </row>
-    <row r="888" spans="13:13">
+    <row r="888" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M888" s="12"/>
     </row>
-    <row r="889" spans="13:13">
+    <row r="889" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M889" s="12"/>
     </row>
-    <row r="890" spans="13:13">
+    <row r="890" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M890" s="12"/>
     </row>
-    <row r="891" spans="13:13">
+    <row r="891" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M891" s="12"/>
     </row>
-    <row r="892" spans="13:13">
+    <row r="892" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M892" s="12"/>
     </row>
-    <row r="893" spans="13:13">
+    <row r="893" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M893" s="12"/>
     </row>
-    <row r="894" spans="13:13">
+    <row r="894" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M894" s="12"/>
     </row>
-    <row r="895" spans="13:13">
+    <row r="895" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M895" s="12"/>
     </row>
-    <row r="896" spans="13:13">
+    <row r="896" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M896" s="12"/>
     </row>
-    <row r="897" spans="13:13">
+    <row r="897" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M897" s="12"/>
     </row>
-    <row r="898" spans="13:13">
+    <row r="898" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M898" s="12"/>
     </row>
-    <row r="899" spans="13:13">
+    <row r="899" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M899" s="12"/>
     </row>
-    <row r="900" spans="13:13">
+    <row r="900" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M900" s="12"/>
     </row>
-    <row r="901" spans="13:13">
+    <row r="901" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M901" s="12"/>
     </row>
-    <row r="902" spans="13:13">
+    <row r="902" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M902" s="12"/>
     </row>
-    <row r="903" spans="13:13">
+    <row r="903" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M903" s="12"/>
     </row>
-    <row r="904" spans="13:13">
+    <row r="904" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M904" s="12"/>
     </row>
-    <row r="905" spans="13:13">
+    <row r="905" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M905" s="12"/>
     </row>
-    <row r="906" spans="13:13">
+    <row r="906" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M906" s="12"/>
     </row>
-    <row r="907" spans="13:13">
+    <row r="907" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M907" s="12"/>
     </row>
-    <row r="908" spans="13:13">
+    <row r="908" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M908" s="12"/>
     </row>
-    <row r="909" spans="13:13">
+    <row r="909" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M909" s="12"/>
     </row>
-    <row r="910" spans="13:13">
+    <row r="910" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M910" s="12"/>
     </row>
-    <row r="911" spans="13:13">
+    <row r="911" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M911" s="12"/>
     </row>
-    <row r="912" spans="13:13">
+    <row r="912" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M912" s="12"/>
     </row>
-    <row r="913" spans="13:13">
+    <row r="913" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M913" s="12"/>
     </row>
-    <row r="914" spans="13:13">
+    <row r="914" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M914" s="12"/>
     </row>
-    <row r="915" spans="13:13">
+    <row r="915" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M915" s="12"/>
     </row>
-    <row r="916" spans="13:13">
+    <row r="916" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M916" s="12"/>
     </row>
-    <row r="917" spans="13:13">
+    <row r="917" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M917" s="12"/>
     </row>
-    <row r="918" spans="13:13">
+    <row r="918" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M918" s="12"/>
     </row>
-    <row r="919" spans="13:13">
+    <row r="919" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M919" s="12"/>
     </row>
-    <row r="920" spans="13:13">
+    <row r="920" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M920" s="12"/>
     </row>
-    <row r="921" spans="13:13">
+    <row r="921" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M921" s="12"/>
     </row>
-    <row r="922" spans="13:13">
+    <row r="922" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M922" s="12"/>
     </row>
-    <row r="923" spans="13:13">
+    <row r="923" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M923" s="12"/>
     </row>
-    <row r="924" spans="13:13">
+    <row r="924" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M924" s="12"/>
     </row>
-    <row r="925" spans="13:13">
+    <row r="925" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M925" s="12"/>
     </row>
-    <row r="926" spans="13:13">
+    <row r="926" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M926" s="12"/>
     </row>
-    <row r="927" spans="13:13">
+    <row r="927" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M927" s="12"/>
     </row>
-    <row r="928" spans="13:13">
+    <row r="928" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M928" s="12"/>
     </row>
-    <row r="929" spans="13:13">
+    <row r="929" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M929" s="12"/>
     </row>
-    <row r="930" spans="13:13">
+    <row r="930" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M930" s="12"/>
     </row>
-    <row r="931" spans="13:13">
+    <row r="931" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M931" s="12"/>
     </row>
-    <row r="932" spans="13:13">
+    <row r="932" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M932" s="12"/>
     </row>
-    <row r="933" spans="13:13">
+    <row r="933" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M933" s="12"/>
     </row>
-    <row r="934" spans="13:13">
+    <row r="934" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M934" s="12"/>
     </row>
-    <row r="935" spans="13:13">
+    <row r="935" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M935" s="12"/>
     </row>
-    <row r="936" spans="13:13">
+    <row r="936" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M936" s="12"/>
     </row>
-    <row r="937" spans="13:13">
+    <row r="937" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M937" s="12"/>
     </row>
-    <row r="938" spans="13:13">
+    <row r="938" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M938" s="12"/>
     </row>
-    <row r="939" spans="13:13">
+    <row r="939" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M939" s="12"/>
     </row>
-    <row r="940" spans="13:13">
+    <row r="940" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M940" s="12"/>
     </row>
-    <row r="941" spans="13:13">
+    <row r="941" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M941" s="12"/>
     </row>
-    <row r="942" spans="13:13">
+    <row r="942" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M942" s="12"/>
     </row>
-    <row r="943" spans="13:13">
+    <row r="943" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M943" s="12"/>
     </row>
-    <row r="944" spans="13:13">
+    <row r="944" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M944" s="12"/>
     </row>
-    <row r="945" spans="13:13">
+    <row r="945" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M945" s="12"/>
     </row>
-    <row r="946" spans="13:13">
+    <row r="946" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M946" s="12"/>
     </row>
-    <row r="947" spans="13:13">
+    <row r="947" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M947" s="12"/>
     </row>
-    <row r="948" spans="13:13">
+    <row r="948" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M948" s="12"/>
     </row>
-    <row r="949" spans="13:13">
+    <row r="949" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M949" s="12"/>
     </row>
-    <row r="950" spans="13:13">
+    <row r="950" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M950" s="12"/>
     </row>
-    <row r="951" spans="13:13">
+    <row r="951" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M951" s="12"/>
     </row>
-    <row r="952" spans="13:13">
+    <row r="952" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M952" s="12"/>
     </row>
-    <row r="953" spans="13:13">
+    <row r="953" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M953" s="12"/>
     </row>
-    <row r="954" spans="13:13">
+    <row r="954" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M954" s="12"/>
     </row>
-    <row r="955" spans="13:13">
+    <row r="955" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M955" s="12"/>
     </row>
-    <row r="956" spans="13:13">
+    <row r="956" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M956" s="12"/>
     </row>
-    <row r="957" spans="13:13">
+    <row r="957" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M957" s="12"/>
     </row>
-    <row r="958" spans="13:13">
+    <row r="958" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M958" s="12"/>
     </row>
-    <row r="959" spans="13:13">
+    <row r="959" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M959" s="12"/>
     </row>
-    <row r="960" spans="13:13">
+    <row r="960" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M960" s="12"/>
     </row>
-    <row r="961" spans="13:13">
+    <row r="961" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M961" s="12"/>
     </row>
-    <row r="962" spans="13:13">
+    <row r="962" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M962" s="12"/>
     </row>
-    <row r="963" spans="13:13">
+    <row r="963" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M963" s="12"/>
     </row>
-    <row r="964" spans="13:13">
+    <row r="964" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M964" s="12"/>
     </row>
-    <row r="965" spans="13:13">
+    <row r="965" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M965" s="12"/>
     </row>
-    <row r="966" spans="13:13">
+    <row r="966" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M966" s="12"/>
     </row>
-    <row r="967" spans="13:13">
+    <row r="967" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M967" s="12"/>
     </row>
-    <row r="968" spans="13:13">
+    <row r="968" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M968" s="12"/>
     </row>
-    <row r="969" spans="13:13">
+    <row r="969" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M969" s="12"/>
     </row>
-    <row r="970" spans="13:13">
+    <row r="970" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M970" s="12"/>
     </row>
-    <row r="971" spans="13:13">
+    <row r="971" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M971" s="12"/>
     </row>
-    <row r="972" spans="13:13">
+    <row r="972" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M972" s="12"/>
     </row>
-    <row r="973" spans="13:13">
+    <row r="973" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M973" s="12"/>
     </row>
-    <row r="974" spans="13:13">
+    <row r="974" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M974" s="12"/>
     </row>
-    <row r="975" spans="13:13">
+    <row r="975" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M975" s="12"/>
     </row>
-    <row r="976" spans="13:13">
+    <row r="976" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M976" s="12"/>
     </row>
-    <row r="977" spans="13:13">
+    <row r="977" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M977" s="12"/>
     </row>
-    <row r="978" spans="13:13">
+    <row r="978" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M978" s="12"/>
     </row>
-    <row r="979" spans="13:13">
+    <row r="979" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M979" s="12"/>
     </row>
-    <row r="980" spans="13:13">
+    <row r="980" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M980" s="12"/>
     </row>
-    <row r="981" spans="13:13">
+    <row r="981" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M981" s="12"/>
     </row>
-    <row r="982" spans="13:13">
+    <row r="982" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M982" s="12"/>
     </row>
-    <row r="983" spans="13:13">
+    <row r="983" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M983" s="12"/>
     </row>
-    <row r="984" spans="13:13">
+    <row r="984" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M984" s="12"/>
     </row>
-    <row r="985" spans="13:13">
+    <row r="985" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M985" s="12"/>
     </row>
-    <row r="986" spans="13:13">
+    <row r="986" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M986" s="12"/>
     </row>
-    <row r="987" spans="13:13">
+    <row r="987" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M987" s="12"/>
     </row>
-    <row r="988" spans="13:13">
+    <row r="988" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M988" s="12"/>
     </row>
-    <row r="989" spans="13:13">
+    <row r="989" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M989" s="12"/>
     </row>
-    <row r="990" spans="13:13">
+    <row r="990" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M990" s="12"/>
     </row>
-    <row r="991" spans="13:13">
+    <row r="991" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M991" s="12"/>
     </row>
-    <row r="992" spans="13:13">
+    <row r="992" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M992" s="12"/>
     </row>
-    <row r="993" spans="13:13">
+    <row r="993" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M993" s="12"/>
     </row>
-    <row r="994" spans="13:13">
+    <row r="994" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M994" s="12"/>
     </row>
-    <row r="995" spans="13:13">
+    <row r="995" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M995" s="12"/>
     </row>
-    <row r="996" spans="13:13">
+    <row r="996" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M996" s="12"/>
     </row>
-    <row r="997" spans="13:13">
+    <row r="997" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M997" s="12"/>
     </row>
-    <row r="998" spans="13:13">
+    <row r="998" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M998" s="12"/>
     </row>
-    <row r="999" spans="13:13">
+    <row r="999" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M999" s="12"/>
     </row>
-    <row r="1000" spans="13:13">
+    <row r="1000" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1000" s="12"/>
     </row>
-    <row r="1001" spans="13:13">
+    <row r="1001" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1001" s="12"/>
     </row>
-    <row r="1002" spans="13:13">
+    <row r="1002" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1002" s="12"/>
     </row>
-    <row r="1003" spans="13:13">
+    <row r="1003" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1003" s="12"/>
     </row>
-    <row r="1004" spans="13:13">
+    <row r="1004" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1004" s="12"/>
     </row>
-    <row r="1005" spans="13:13">
+    <row r="1005" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1005" s="12"/>
     </row>
-    <row r="1006" spans="13:13">
+    <row r="1006" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1006" s="12"/>
     </row>
-    <row r="1007" spans="13:13">
+    <row r="1007" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1007" s="12"/>
     </row>
-    <row r="1008" spans="13:13">
+    <row r="1008" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1008" s="12"/>
     </row>
-    <row r="1009" spans="13:13">
+    <row r="1009" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1009" s="12"/>
     </row>
-    <row r="1010" spans="13:13">
+    <row r="1010" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1010" s="12"/>
     </row>
-    <row r="1011" spans="13:13">
+    <row r="1011" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1011" s="12"/>
     </row>
-    <row r="1012" spans="13:13">
+    <row r="1012" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1012" s="12"/>
     </row>
-    <row r="1013" spans="13:13">
+    <row r="1013" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1013" s="12"/>
     </row>
-    <row r="1014" spans="13:13">
+    <row r="1014" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1014" s="12"/>
     </row>
-    <row r="1015" spans="13:13">
+    <row r="1015" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1015" s="12"/>
     </row>
-    <row r="1016" spans="13:13">
+    <row r="1016" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1016" s="12"/>
     </row>
-    <row r="1017" spans="13:13">
+    <row r="1017" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1017" s="12"/>
     </row>
-    <row r="1018" spans="13:13">
+    <row r="1018" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1018" s="12"/>
     </row>
-    <row r="1019" spans="13:13">
+    <row r="1019" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1019" s="12"/>
     </row>
-    <row r="1020" spans="13:13">
+    <row r="1020" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1020" s="12"/>
     </row>
-    <row r="1021" spans="13:13">
+    <row r="1021" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1021" s="12"/>
     </row>
-    <row r="1022" spans="13:13">
+    <row r="1022" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1022" s="12"/>
     </row>
-    <row r="1023" spans="13:13">
+    <row r="1023" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1023" s="12"/>
     </row>
-    <row r="1024" spans="13:13">
+    <row r="1024" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1024" s="12"/>
     </row>
-    <row r="1025" spans="13:13">
+    <row r="1025" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1025" s="12"/>
     </row>
-    <row r="1026" spans="13:13">
+    <row r="1026" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1026" s="12"/>
     </row>
-    <row r="1027" spans="13:13">
+    <row r="1027" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1027" s="12"/>
     </row>
-    <row r="1028" spans="13:13">
+    <row r="1028" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1028" s="12"/>
     </row>
-    <row r="1029" spans="13:13">
+    <row r="1029" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1029" s="12"/>
     </row>
-    <row r="1030" spans="13:13">
+    <row r="1030" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1030" s="12"/>
     </row>
-    <row r="1031" spans="13:13">
+    <row r="1031" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1031" s="12"/>
     </row>
-    <row r="1032" spans="13:13">
+    <row r="1032" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1032" s="12"/>
     </row>
-    <row r="1033" spans="13:13">
+    <row r="1033" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1033" s="12"/>
     </row>
-    <row r="1034" spans="13:13">
+    <row r="1034" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1034" s="12"/>
     </row>
-    <row r="1035" spans="13:13">
+    <row r="1035" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1035" s="12"/>
     </row>
-    <row r="1036" spans="13:13">
+    <row r="1036" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1036" s="12"/>
     </row>
-    <row r="1037" spans="13:13">
+    <row r="1037" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1037" s="12"/>
     </row>
-    <row r="1038" spans="13:13">
+    <row r="1038" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1038" s="12"/>
     </row>
-    <row r="1039" spans="13:13">
+    <row r="1039" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1039" s="12"/>
     </row>
-    <row r="1040" spans="13:13">
+    <row r="1040" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1040" s="12"/>
     </row>
-    <row r="1041" spans="13:13">
+    <row r="1041" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1041" s="12"/>
     </row>
-    <row r="1042" spans="13:13">
+    <row r="1042" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1042" s="12"/>
     </row>
-    <row r="1043" spans="13:13">
+    <row r="1043" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1043" s="12"/>
     </row>
-    <row r="1044" spans="13:13">
+    <row r="1044" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1044" s="12"/>
     </row>
   </sheetData>
